--- a/5/1/2/Agregados promedios 1985 a 2021 - Trimestral.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Trimestral.xlsx
@@ -885,7 +885,7 @@
         <v>5677</v>
       </c>
       <c r="I2">
-        <v>5603</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -972,7 +972,7 @@
         <v>6267</v>
       </c>
       <c r="I5">
-        <v>6248</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1030,7 +1030,7 @@
         <v>6765</v>
       </c>
       <c r="I7">
-        <v>6708</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1053,7 +1053,7 @@
         <v>4039</v>
       </c>
       <c r="G8">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="H8">
         <v>6866</v>
@@ -1233,7 +1233,7 @@
         <v>9134</v>
       </c>
       <c r="I14">
-        <v>8988</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1262,7 +1262,7 @@
         <v>9475</v>
       </c>
       <c r="I15">
-        <v>9434</v>
+        <v>9435</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1291,7 +1291,7 @@
         <v>9747</v>
       </c>
       <c r="I16">
-        <v>9782</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1308,7 +1308,7 @@
         <v>1372</v>
       </c>
       <c r="E17">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F17">
         <v>5407</v>
@@ -1320,7 +1320,7 @@
         <v>10251</v>
       </c>
       <c r="I17">
-        <v>10201</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1407,7 +1407,7 @@
         <v>10788</v>
       </c>
       <c r="I20">
-        <v>10854</v>
+        <v>10852</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1523,7 +1523,7 @@
         <v>12784</v>
       </c>
       <c r="I24">
-        <v>12862</v>
+        <v>12861</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1610,7 +1610,7 @@
         <v>14540</v>
       </c>
       <c r="I27">
-        <v>14541</v>
+        <v>14542</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1639,7 +1639,7 @@
         <v>14561</v>
       </c>
       <c r="I28">
-        <v>14682</v>
+        <v>14681</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1697,7 +1697,7 @@
         <v>15793</v>
       </c>
       <c r="I30">
-        <v>15556</v>
+        <v>15557</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1720,13 +1720,13 @@
         <v>8052</v>
       </c>
       <c r="G31">
-        <v>8032</v>
+        <v>8033</v>
       </c>
       <c r="H31">
         <v>16136</v>
       </c>
       <c r="I31">
-        <v>16159</v>
+        <v>16160</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1755,7 +1755,7 @@
         <v>16326</v>
       </c>
       <c r="I32">
-        <v>16462</v>
+        <v>16463</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1784,7 +1784,7 @@
         <v>17153</v>
       </c>
       <c r="I33">
-        <v>17074</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1830,7 +1830,7 @@
         <v>1873</v>
       </c>
       <c r="E35">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F35">
         <v>8619</v>
@@ -1842,7 +1842,7 @@
         <v>17319</v>
       </c>
       <c r="I35">
-        <v>17321</v>
+        <v>17320</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1894,7 +1894,7 @@
         <v>9172</v>
       </c>
       <c r="G37">
-        <v>9140</v>
+        <v>9141</v>
       </c>
       <c r="H37">
         <v>18856</v>
@@ -1929,7 +1929,7 @@
         <v>19356</v>
       </c>
       <c r="I38">
-        <v>19186</v>
+        <v>19187</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1946,19 +1946,19 @@
         <v>2207</v>
       </c>
       <c r="E39">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="F39">
         <v>9955</v>
       </c>
       <c r="G39">
-        <v>9896</v>
+        <v>9897</v>
       </c>
       <c r="H39">
         <v>19930</v>
       </c>
       <c r="I39">
-        <v>19900</v>
+        <v>19902</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1987,7 +1987,7 @@
         <v>20138</v>
       </c>
       <c r="I40">
-        <v>20201</v>
+        <v>20203</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2039,13 +2039,13 @@
         <v>11044</v>
       </c>
       <c r="G42">
-        <v>10966</v>
+        <v>10967</v>
       </c>
       <c r="H42">
         <v>21609</v>
       </c>
       <c r="I42">
-        <v>21455</v>
+        <v>21456</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2068,13 +2068,13 @@
         <v>11416</v>
       </c>
       <c r="G43">
-        <v>11341</v>
+        <v>11342</v>
       </c>
       <c r="H43">
         <v>21960</v>
       </c>
       <c r="I43">
-        <v>21911</v>
+        <v>21912</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2097,13 +2097,13 @@
         <v>11610</v>
       </c>
       <c r="G44">
-        <v>11660</v>
+        <v>11659</v>
       </c>
       <c r="H44">
         <v>22758</v>
       </c>
       <c r="I44">
-        <v>22830</v>
+        <v>22828</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2132,7 +2132,7 @@
         <v>23370</v>
       </c>
       <c r="I45">
-        <v>23248</v>
+        <v>23247</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2161,7 +2161,7 @@
         <v>24029</v>
       </c>
       <c r="I46">
-        <v>23970</v>
+        <v>23969</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2172,7 +2172,7 @@
         <v>727</v>
       </c>
       <c r="C47">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D47">
         <v>2632</v>
@@ -2184,13 +2184,13 @@
         <v>13107</v>
       </c>
       <c r="G47">
-        <v>13026</v>
+        <v>13025</v>
       </c>
       <c r="H47">
         <v>25102</v>
       </c>
       <c r="I47">
-        <v>25056</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2219,7 +2219,7 @@
         <v>25573</v>
       </c>
       <c r="I48">
-        <v>25663</v>
+        <v>25664</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2242,13 +2242,13 @@
         <v>14074</v>
       </c>
       <c r="G49">
-        <v>14065</v>
+        <v>14067</v>
       </c>
       <c r="H49">
         <v>26578</v>
       </c>
       <c r="I49">
-        <v>26440</v>
+        <v>26444</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2271,7 +2271,7 @@
         <v>14310</v>
       </c>
       <c r="G50">
-        <v>14351</v>
+        <v>14352</v>
       </c>
       <c r="H50">
         <v>26372</v>
@@ -2300,13 +2300,13 @@
         <v>14572</v>
       </c>
       <c r="G51">
-        <v>14462</v>
+        <v>14463</v>
       </c>
       <c r="H51">
         <v>26781</v>
       </c>
       <c r="I51">
-        <v>26701</v>
+        <v>26702</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2329,13 +2329,13 @@
         <v>14491</v>
       </c>
       <c r="G52">
-        <v>14606</v>
+        <v>14605</v>
       </c>
       <c r="H52">
         <v>26650</v>
       </c>
       <c r="I52">
-        <v>26796</v>
+        <v>26795</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2364,7 +2364,7 @@
         <v>27027</v>
       </c>
       <c r="I53">
-        <v>26917</v>
+        <v>26915</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2393,7 +2393,7 @@
         <v>27159</v>
       </c>
       <c r="I54">
-        <v>27191</v>
+        <v>27192</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2416,13 +2416,13 @@
         <v>15309</v>
       </c>
       <c r="G55">
-        <v>15201</v>
+        <v>15202</v>
       </c>
       <c r="H55">
         <v>28517</v>
       </c>
       <c r="I55">
-        <v>28489</v>
+        <v>28490</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2451,7 +2451,7 @@
         <v>28656</v>
       </c>
       <c r="I56">
-        <v>28819</v>
+        <v>28820</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2462,7 +2462,7 @@
         <v>854</v>
       </c>
       <c r="C57">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D57">
         <v>2935</v>
@@ -2480,7 +2480,7 @@
         <v>29527</v>
       </c>
       <c r="I57">
-        <v>29384</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2509,7 +2509,7 @@
         <v>29346</v>
       </c>
       <c r="I58">
-        <v>29401</v>
+        <v>29403</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2532,13 +2532,13 @@
         <v>16055</v>
       </c>
       <c r="G59">
-        <v>15957</v>
+        <v>15958</v>
       </c>
       <c r="H59">
         <v>30051</v>
       </c>
       <c r="I59">
-        <v>30011</v>
+        <v>30012</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2561,13 +2561,13 @@
         <v>15880</v>
       </c>
       <c r="G60">
-        <v>15996</v>
+        <v>15997</v>
       </c>
       <c r="H60">
         <v>30475</v>
       </c>
       <c r="I60">
-        <v>30587</v>
+        <v>30588</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2596,7 +2596,7 @@
         <v>31592</v>
       </c>
       <c r="I61">
-        <v>31384</v>
+        <v>31385</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2619,13 +2619,13 @@
         <v>16597</v>
       </c>
       <c r="G62">
-        <v>16595</v>
+        <v>16594</v>
       </c>
       <c r="H62">
         <v>31770</v>
       </c>
       <c r="I62">
-        <v>31782</v>
+        <v>31781</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2665,7 +2665,7 @@
         <v>808</v>
       </c>
       <c r="C64">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D64">
         <v>3013</v>
@@ -2677,13 +2677,13 @@
         <v>16505</v>
       </c>
       <c r="G64">
-        <v>16670</v>
+        <v>16669</v>
       </c>
       <c r="H64">
         <v>33048</v>
       </c>
       <c r="I64">
-        <v>33180</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2706,13 +2706,13 @@
         <v>17011</v>
       </c>
       <c r="G65">
-        <v>16965</v>
+        <v>16964</v>
       </c>
       <c r="H65">
         <v>33956</v>
       </c>
       <c r="I65">
-        <v>33817</v>
+        <v>33815</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2741,7 +2741,7 @@
         <v>34255</v>
       </c>
       <c r="I66">
-        <v>34265</v>
+        <v>34267</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2764,13 +2764,13 @@
         <v>17412</v>
       </c>
       <c r="G67">
-        <v>17358</v>
+        <v>17359</v>
       </c>
       <c r="H67">
         <v>34445</v>
       </c>
       <c r="I67">
-        <v>34483</v>
+        <v>34481</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2793,13 +2793,13 @@
         <v>17454</v>
       </c>
       <c r="G68">
-        <v>17630</v>
+        <v>17629</v>
       </c>
       <c r="H68">
         <v>34370</v>
       </c>
       <c r="I68">
-        <v>34518</v>
+        <v>34516</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2816,19 +2816,19 @@
         <v>3627</v>
       </c>
       <c r="E69">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="F69">
         <v>17937</v>
       </c>
       <c r="G69">
-        <v>17872</v>
+        <v>17871</v>
       </c>
       <c r="H69">
         <v>35105</v>
       </c>
       <c r="I69">
-        <v>34906</v>
+        <v>34903</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2845,19 +2845,19 @@
         <v>3990</v>
       </c>
       <c r="E70">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="F70">
         <v>18081</v>
       </c>
       <c r="G70">
-        <v>17947</v>
+        <v>17946</v>
       </c>
       <c r="H70">
         <v>35565</v>
       </c>
       <c r="I70">
-        <v>35515</v>
+        <v>35512</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2880,13 +2880,13 @@
         <v>17276</v>
       </c>
       <c r="G71">
-        <v>17244</v>
+        <v>17245</v>
       </c>
       <c r="H71">
         <v>35529</v>
       </c>
       <c r="I71">
-        <v>35560</v>
+        <v>35558</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2915,7 +2915,7 @@
         <v>35622</v>
       </c>
       <c r="I72">
-        <v>35774</v>
+        <v>35772</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2926,25 +2926,25 @@
         <v>988</v>
       </c>
       <c r="C73">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D73">
         <v>4220</v>
       </c>
       <c r="E73">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="F73">
         <v>17326</v>
       </c>
       <c r="G73">
-        <v>17226</v>
+        <v>17228</v>
       </c>
       <c r="H73">
         <v>36016</v>
       </c>
       <c r="I73">
-        <v>35820</v>
+        <v>35825</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2973,7 +2973,7 @@
         <v>36803</v>
       </c>
       <c r="I74">
-        <v>36724</v>
+        <v>36725</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2996,13 +2996,13 @@
         <v>18145</v>
       </c>
       <c r="G75">
-        <v>18111</v>
+        <v>18114</v>
       </c>
       <c r="H75">
         <v>36902</v>
       </c>
       <c r="I75">
-        <v>36871</v>
+        <v>36875</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3025,13 +3025,13 @@
         <v>19233</v>
       </c>
       <c r="G76">
-        <v>19461</v>
+        <v>19460</v>
       </c>
       <c r="H76">
         <v>37865</v>
       </c>
       <c r="I76">
-        <v>38081</v>
+        <v>38080</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3042,7 +3042,7 @@
         <v>1112</v>
       </c>
       <c r="C77">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D77">
         <v>5112</v>
@@ -3089,7 +3089,7 @@
         <v>39234</v>
       </c>
       <c r="I78">
-        <v>39161</v>
+        <v>39162</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3112,13 +3112,13 @@
         <v>21749</v>
       </c>
       <c r="G79">
-        <v>21740</v>
+        <v>21741</v>
       </c>
       <c r="H79">
         <v>40374</v>
       </c>
       <c r="I79">
-        <v>40368</v>
+        <v>40366</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3141,13 +3141,13 @@
         <v>21630</v>
       </c>
       <c r="G80">
-        <v>21817</v>
+        <v>21816</v>
       </c>
       <c r="H80">
         <v>40217</v>
       </c>
       <c r="I80">
-        <v>40353</v>
+        <v>40355</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3164,19 +3164,19 @@
         <v>5485</v>
       </c>
       <c r="E81">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="F81">
         <v>24019</v>
       </c>
       <c r="G81">
-        <v>23821</v>
+        <v>23820</v>
       </c>
       <c r="H81">
         <v>42456</v>
       </c>
       <c r="I81">
-        <v>42135</v>
+        <v>42133</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3199,13 +3199,13 @@
         <v>24501</v>
       </c>
       <c r="G82">
-        <v>24245</v>
+        <v>24246</v>
       </c>
       <c r="H82">
         <v>42693</v>
       </c>
       <c r="I82">
-        <v>42589</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3228,13 +3228,13 @@
         <v>25103</v>
       </c>
       <c r="G83">
-        <v>25073</v>
+        <v>25075</v>
       </c>
       <c r="H83">
         <v>43110</v>
       </c>
       <c r="I83">
-        <v>43016</v>
+        <v>43022</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3263,7 +3263,7 @@
         <v>44297</v>
       </c>
       <c r="I84">
-        <v>44463</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3292,7 +3292,7 @@
         <v>45886</v>
       </c>
       <c r="I85">
-        <v>45496</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3315,13 +3315,13 @@
         <v>28350</v>
       </c>
       <c r="G86">
-        <v>28073</v>
+        <v>28072</v>
       </c>
       <c r="H86">
         <v>47015</v>
       </c>
       <c r="I86">
-        <v>46891</v>
+        <v>46888</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3350,7 +3350,7 @@
         <v>47826</v>
       </c>
       <c r="I87">
-        <v>47689</v>
+        <v>47696</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3373,13 +3373,13 @@
         <v>28911</v>
       </c>
       <c r="G88">
-        <v>29184</v>
+        <v>29183</v>
       </c>
       <c r="H88">
         <v>47385</v>
       </c>
       <c r="I88">
-        <v>47593</v>
+        <v>47592</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3402,13 +3402,13 @@
         <v>30832</v>
       </c>
       <c r="G89">
-        <v>30555</v>
+        <v>30554</v>
       </c>
       <c r="H89">
         <v>49193</v>
       </c>
       <c r="I89">
-        <v>48875</v>
+        <v>48871</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3431,13 +3431,13 @@
         <v>31668</v>
       </c>
       <c r="G90">
-        <v>31486</v>
+        <v>31485</v>
       </c>
       <c r="H90">
         <v>49501</v>
       </c>
       <c r="I90">
-        <v>49519</v>
+        <v>49517</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3460,13 +3460,13 @@
         <v>31615</v>
       </c>
       <c r="G91">
-        <v>31596</v>
+        <v>31594</v>
       </c>
       <c r="H91">
         <v>50859</v>
       </c>
       <c r="I91">
-        <v>50760</v>
+        <v>50770</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3495,7 +3495,7 @@
         <v>51841</v>
       </c>
       <c r="I92">
-        <v>52121</v>
+        <v>52120</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3512,19 +3512,19 @@
         <v>6604</v>
       </c>
       <c r="E93">
-        <v>6420</v>
+        <v>6421</v>
       </c>
       <c r="F93">
         <v>33701</v>
       </c>
       <c r="G93">
-        <v>33341</v>
+        <v>33344</v>
       </c>
       <c r="H93">
         <v>54264</v>
       </c>
       <c r="I93">
-        <v>53859</v>
+        <v>53866</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3553,7 +3553,7 @@
         <v>54284</v>
       </c>
       <c r="I94">
-        <v>54339</v>
+        <v>54340</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3570,19 +3570,19 @@
         <v>7168</v>
       </c>
       <c r="E95">
-        <v>7072</v>
+        <v>7071</v>
       </c>
       <c r="F95">
         <v>33313</v>
       </c>
       <c r="G95">
-        <v>33272</v>
+        <v>33270</v>
       </c>
       <c r="H95">
         <v>54916</v>
       </c>
       <c r="I95">
-        <v>54729</v>
+        <v>54744</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3593,7 +3593,7 @@
         <v>1609</v>
       </c>
       <c r="C96">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D96">
         <v>7575</v>
@@ -3605,13 +3605,13 @@
         <v>33404</v>
       </c>
       <c r="G96">
-        <v>33685</v>
+        <v>33686</v>
       </c>
       <c r="H96">
         <v>54976</v>
       </c>
       <c r="I96">
-        <v>55296</v>
+        <v>55298</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3634,13 +3634,13 @@
         <v>33710</v>
       </c>
       <c r="G97">
-        <v>33467</v>
+        <v>33465</v>
       </c>
       <c r="H97">
         <v>55624</v>
       </c>
       <c r="I97">
-        <v>55366</v>
+        <v>55360</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3651,7 +3651,7 @@
         <v>1766</v>
       </c>
       <c r="C98">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D98">
         <v>8742</v>
@@ -3663,13 +3663,13 @@
         <v>34755</v>
       </c>
       <c r="G98">
-        <v>34687</v>
+        <v>34688</v>
       </c>
       <c r="H98">
         <v>56973</v>
       </c>
       <c r="I98">
-        <v>57175</v>
+        <v>57178</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3680,25 +3680,25 @@
         <v>1835</v>
       </c>
       <c r="C99">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D99">
         <v>9345</v>
       </c>
       <c r="E99">
-        <v>9181</v>
+        <v>9182</v>
       </c>
       <c r="F99">
         <v>35151</v>
       </c>
       <c r="G99">
-        <v>35042</v>
+        <v>35043</v>
       </c>
       <c r="H99">
         <v>57832</v>
       </c>
       <c r="I99">
-        <v>57605</v>
+        <v>57627</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3727,7 +3727,7 @@
         <v>57744</v>
       </c>
       <c r="I100">
-        <v>58027</v>
+        <v>58028</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3756,7 +3756,7 @@
         <v>60383</v>
       </c>
       <c r="I101">
-        <v>60155</v>
+        <v>60158</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3767,7 +3767,7 @@
         <v>1888</v>
       </c>
       <c r="C102">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D102">
         <v>9534</v>
@@ -3779,13 +3779,13 @@
         <v>36458</v>
       </c>
       <c r="G102">
-        <v>36501</v>
+        <v>36500</v>
       </c>
       <c r="H102">
         <v>61762</v>
       </c>
       <c r="I102">
-        <v>62062</v>
+        <v>62063</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3808,13 +3808,13 @@
         <v>38399</v>
       </c>
       <c r="G103">
-        <v>38288</v>
+        <v>38287</v>
       </c>
       <c r="H103">
         <v>64118</v>
       </c>
       <c r="I103">
-        <v>63904</v>
+        <v>63916</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3843,7 +3843,7 @@
         <v>67199</v>
       </c>
       <c r="I104">
-        <v>67276</v>
+        <v>67278</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3872,7 +3872,7 @@
         <v>69901</v>
       </c>
       <c r="I105">
-        <v>69616</v>
+        <v>69618</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3889,19 +3889,19 @@
         <v>10231</v>
       </c>
       <c r="E106">
-        <v>10292</v>
+        <v>10291</v>
       </c>
       <c r="F106">
         <v>42437</v>
       </c>
       <c r="G106">
-        <v>42537</v>
+        <v>42534</v>
       </c>
       <c r="H106">
         <v>71256</v>
       </c>
       <c r="I106">
-        <v>71617</v>
+        <v>71614</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3924,13 +3924,13 @@
         <v>45369</v>
       </c>
       <c r="G107">
-        <v>45146</v>
+        <v>45144</v>
       </c>
       <c r="H107">
         <v>74190</v>
       </c>
       <c r="I107">
-        <v>73858</v>
+        <v>73863</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3953,13 +3953,13 @@
         <v>45928</v>
       </c>
       <c r="G108">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="H108">
         <v>74307</v>
       </c>
       <c r="I108">
-        <v>74222</v>
+        <v>74220</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3970,25 +3970,25 @@
         <v>2392</v>
       </c>
       <c r="C109">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D109">
         <v>11166</v>
       </c>
       <c r="E109">
-        <v>10876</v>
+        <v>10877</v>
       </c>
       <c r="F109">
         <v>46672</v>
       </c>
       <c r="G109">
-        <v>46330</v>
+        <v>46331</v>
       </c>
       <c r="H109">
         <v>75249</v>
       </c>
       <c r="I109">
-        <v>75161</v>
+        <v>75163</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3999,7 +3999,7 @@
         <v>2379</v>
       </c>
       <c r="C110">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D110">
         <v>11274</v>
@@ -4011,13 +4011,13 @@
         <v>47397</v>
       </c>
       <c r="G110">
-        <v>47585</v>
+        <v>47587</v>
       </c>
       <c r="H110">
         <v>76650</v>
       </c>
       <c r="I110">
-        <v>77165</v>
+        <v>77172</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4057,25 +4057,25 @@
         <v>2556</v>
       </c>
       <c r="C112">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="D112">
         <v>11810</v>
       </c>
       <c r="E112">
-        <v>11863</v>
+        <v>11862</v>
       </c>
       <c r="F112">
         <v>49966</v>
       </c>
       <c r="G112">
-        <v>50075</v>
+        <v>50074</v>
       </c>
       <c r="H112">
         <v>81856</v>
       </c>
       <c r="I112">
-        <v>81716</v>
+        <v>81712</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4098,13 +4098,13 @@
         <v>50386</v>
       </c>
       <c r="G113">
-        <v>49923</v>
+        <v>49924</v>
       </c>
       <c r="H113">
         <v>81611</v>
       </c>
       <c r="I113">
-        <v>81364</v>
+        <v>81365</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4121,19 +4121,19 @@
         <v>12091</v>
       </c>
       <c r="E114">
-        <v>12115</v>
+        <v>12114</v>
       </c>
       <c r="F114">
         <v>50428</v>
       </c>
       <c r="G114">
-        <v>50615</v>
+        <v>50613</v>
       </c>
       <c r="H114">
         <v>82455</v>
       </c>
       <c r="I114">
-        <v>83051</v>
+        <v>83046</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4150,19 +4150,19 @@
         <v>12489</v>
       </c>
       <c r="E115">
-        <v>12358</v>
+        <v>12357</v>
       </c>
       <c r="F115">
         <v>50022</v>
       </c>
       <c r="G115">
-        <v>49959</v>
+        <v>49958</v>
       </c>
       <c r="H115">
         <v>83637</v>
       </c>
       <c r="I115">
-        <v>83502</v>
+        <v>83494</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4179,19 +4179,19 @@
         <v>12391</v>
       </c>
       <c r="E116">
-        <v>12528</v>
+        <v>12527</v>
       </c>
       <c r="F116">
         <v>50296</v>
       </c>
       <c r="G116">
-        <v>50374</v>
+        <v>50373</v>
       </c>
       <c r="H116">
         <v>84512</v>
       </c>
       <c r="I116">
-        <v>84208</v>
+        <v>84206</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4202,25 +4202,25 @@
         <v>2734</v>
       </c>
       <c r="C117">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="D117">
         <v>13504</v>
       </c>
       <c r="E117">
-        <v>13038</v>
+        <v>13041</v>
       </c>
       <c r="F117">
         <v>52830</v>
       </c>
       <c r="G117">
-        <v>52198</v>
+        <v>52205</v>
       </c>
       <c r="H117">
         <v>86809</v>
       </c>
       <c r="I117">
-        <v>86533</v>
+        <v>86551</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4243,13 +4243,13 @@
         <v>52112</v>
       </c>
       <c r="G118">
-        <v>52287</v>
+        <v>52288</v>
       </c>
       <c r="H118">
         <v>86745</v>
       </c>
       <c r="I118">
-        <v>87408</v>
+        <v>87406</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4272,13 +4272,13 @@
         <v>52991</v>
       </c>
       <c r="G119">
-        <v>52980</v>
+        <v>52981</v>
       </c>
       <c r="H119">
         <v>88366</v>
       </c>
       <c r="I119">
-        <v>88186</v>
+        <v>88182</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4289,25 +4289,25 @@
         <v>2766</v>
       </c>
       <c r="C120">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D120">
         <v>13479</v>
       </c>
       <c r="E120">
-        <v>13689</v>
+        <v>13690</v>
       </c>
       <c r="F120">
         <v>54276</v>
       </c>
       <c r="G120">
-        <v>54383</v>
+        <v>54385</v>
       </c>
       <c r="H120">
         <v>91238</v>
       </c>
       <c r="I120">
-        <v>90860</v>
+        <v>90864</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4324,7 +4324,7 @@
         <v>14303</v>
       </c>
       <c r="E121">
-        <v>13845</v>
+        <v>13846</v>
       </c>
       <c r="F121">
         <v>56139</v>
@@ -4336,7 +4336,7 @@
         <v>93214</v>
       </c>
       <c r="I121">
-        <v>93025</v>
+        <v>93016</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4359,13 +4359,13 @@
         <v>56187</v>
       </c>
       <c r="G122">
-        <v>56539</v>
+        <v>56541</v>
       </c>
       <c r="H122">
         <v>92661</v>
       </c>
       <c r="I122">
-        <v>93574</v>
+        <v>93575</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4388,13 +4388,13 @@
         <v>56617</v>
       </c>
       <c r="G123">
-        <v>56647</v>
+        <v>56649</v>
       </c>
       <c r="H123">
         <v>94503</v>
       </c>
       <c r="I123">
-        <v>94421</v>
+        <v>94417</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4417,13 +4417,13 @@
         <v>57210</v>
       </c>
       <c r="G124">
-        <v>57161</v>
+        <v>57160</v>
       </c>
       <c r="H124">
         <v>97175</v>
       </c>
       <c r="I124">
-        <v>96482</v>
+        <v>96481</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4440,19 +4440,19 @@
         <v>14510</v>
       </c>
       <c r="E125">
-        <v>14086</v>
+        <v>14087</v>
       </c>
       <c r="F125">
         <v>58716</v>
       </c>
       <c r="G125">
-        <v>57803</v>
+        <v>57804</v>
       </c>
       <c r="H125">
         <v>98249</v>
       </c>
       <c r="I125">
-        <v>97801</v>
+        <v>97792</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4463,7 +4463,7 @@
         <v>2928</v>
       </c>
       <c r="C126">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="D126">
         <v>14203</v>
@@ -4475,13 +4475,13 @@
         <v>57528</v>
       </c>
       <c r="G126">
-        <v>57764</v>
+        <v>57771</v>
       </c>
       <c r="H126">
         <v>98638</v>
       </c>
       <c r="I126">
-        <v>99628</v>
+        <v>99638</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4504,13 +4504,13 @@
         <v>58450</v>
       </c>
       <c r="G127">
-        <v>58407</v>
+        <v>58412</v>
       </c>
       <c r="H127">
         <v>100766</v>
       </c>
       <c r="I127">
-        <v>100555</v>
+        <v>100560</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4521,7 +4521,7 @@
         <v>2987</v>
       </c>
       <c r="C128">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="D128">
         <v>14723</v>
@@ -4533,13 +4533,13 @@
         <v>59454</v>
       </c>
       <c r="G128">
-        <v>59278</v>
+        <v>59273</v>
       </c>
       <c r="H128">
         <v>101657</v>
       </c>
       <c r="I128">
-        <v>100728</v>
+        <v>100720</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4550,13 +4550,13 @@
         <v>3082</v>
       </c>
       <c r="C129">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D129">
         <v>15653</v>
       </c>
       <c r="E129">
-        <v>15153</v>
+        <v>15152</v>
       </c>
       <c r="F129">
         <v>60217</v>
@@ -4568,7 +4568,7 @@
         <v>100900</v>
       </c>
       <c r="I129">
-        <v>100425</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4579,7 +4579,7 @@
         <v>3035</v>
       </c>
       <c r="C130">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="D130">
         <v>15656</v>
@@ -4591,13 +4591,13 @@
         <v>60811</v>
       </c>
       <c r="G130">
-        <v>61249</v>
+        <v>61259</v>
       </c>
       <c r="H130">
         <v>100778</v>
       </c>
       <c r="I130">
-        <v>101944</v>
+        <v>101962</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4608,25 +4608,25 @@
         <v>3006</v>
       </c>
       <c r="C131">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="D131">
         <v>16154</v>
       </c>
       <c r="E131">
-        <v>15987</v>
+        <v>15988</v>
       </c>
       <c r="F131">
         <v>63098</v>
       </c>
       <c r="G131">
-        <v>62926</v>
+        <v>62945</v>
       </c>
       <c r="H131">
         <v>104275</v>
       </c>
       <c r="I131">
-        <v>103916</v>
+        <v>103958</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4637,25 +4637,25 @@
         <v>3058</v>
       </c>
       <c r="C132">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="D132">
         <v>16139</v>
       </c>
       <c r="E132">
-        <v>16189</v>
+        <v>16186</v>
       </c>
       <c r="F132">
         <v>63353</v>
       </c>
       <c r="G132">
-        <v>63176</v>
+        <v>63159</v>
       </c>
       <c r="H132">
         <v>106537</v>
       </c>
       <c r="I132">
-        <v>105369</v>
+        <v>105333</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4666,25 +4666,25 @@
         <v>3110</v>
       </c>
       <c r="C133">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="D133">
         <v>16729</v>
       </c>
       <c r="E133">
-        <v>16268</v>
+        <v>16264</v>
       </c>
       <c r="F133">
         <v>64961</v>
       </c>
       <c r="G133">
-        <v>64049</v>
+        <v>64044</v>
       </c>
       <c r="H133">
         <v>109083</v>
       </c>
       <c r="I133">
-        <v>108859</v>
+        <v>108822</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4695,25 +4695,25 @@
         <v>3060</v>
       </c>
       <c r="C134">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="D134">
         <v>16530</v>
       </c>
       <c r="E134">
-        <v>16677</v>
+        <v>16680</v>
       </c>
       <c r="F134">
         <v>64035</v>
       </c>
       <c r="G134">
-        <v>64349</v>
+        <v>64373</v>
       </c>
       <c r="H134">
         <v>109195</v>
       </c>
       <c r="I134">
-        <v>110419</v>
+        <v>110470</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4724,25 +4724,25 @@
         <v>3063</v>
       </c>
       <c r="C135">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="D135">
         <v>17123</v>
       </c>
       <c r="E135">
-        <v>16878</v>
+        <v>16889</v>
       </c>
       <c r="F135">
         <v>65189</v>
       </c>
       <c r="G135">
-        <v>65061</v>
+        <v>65098</v>
       </c>
       <c r="H135">
         <v>112754</v>
       </c>
       <c r="I135">
-        <v>112351</v>
+        <v>112454</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4753,25 +4753,25 @@
         <v>3140</v>
       </c>
       <c r="C136">
-        <v>3068</v>
+        <v>3074</v>
       </c>
       <c r="D136">
         <v>17763</v>
       </c>
       <c r="E136">
-        <v>17780</v>
+        <v>17771</v>
       </c>
       <c r="F136">
         <v>66832</v>
       </c>
       <c r="G136">
-        <v>66714</v>
+        <v>66684</v>
       </c>
       <c r="H136">
         <v>115725</v>
       </c>
       <c r="I136">
-        <v>114421</v>
+        <v>114353</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4782,25 +4782,25 @@
         <v>3380</v>
       </c>
       <c r="C137">
-        <v>3316</v>
+        <v>3322</v>
       </c>
       <c r="D137">
         <v>19470</v>
       </c>
       <c r="E137">
-        <v>19034</v>
+        <v>19027</v>
       </c>
       <c r="F137">
         <v>69582</v>
       </c>
       <c r="G137">
-        <v>68628</v>
+        <v>68619</v>
       </c>
       <c r="H137">
         <v>117290</v>
       </c>
       <c r="I137">
-        <v>116890</v>
+        <v>116841</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4811,25 +4811,25 @@
         <v>3404</v>
       </c>
       <c r="C138">
-        <v>3516</v>
+        <v>3507</v>
       </c>
       <c r="D138">
         <v>19887</v>
       </c>
       <c r="E138">
-        <v>20138</v>
+        <v>20144</v>
       </c>
       <c r="F138">
         <v>68893</v>
       </c>
       <c r="G138">
-        <v>69403</v>
+        <v>69435</v>
       </c>
       <c r="H138">
         <v>116703</v>
       </c>
       <c r="I138">
-        <v>118236</v>
+        <v>118312</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4840,25 +4840,25 @@
         <v>3866</v>
       </c>
       <c r="C139">
-        <v>3855</v>
+        <v>3844</v>
       </c>
       <c r="D139">
         <v>23344</v>
       </c>
       <c r="E139">
-        <v>22968</v>
+        <v>22998</v>
       </c>
       <c r="F139">
         <v>70154</v>
       </c>
       <c r="G139">
-        <v>70019</v>
+        <v>70077</v>
       </c>
       <c r="H139">
         <v>120075</v>
       </c>
       <c r="I139">
-        <v>119487</v>
+        <v>119657</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4869,25 +4869,25 @@
         <v>4941</v>
       </c>
       <c r="C140">
-        <v>4828</v>
+        <v>4844</v>
       </c>
       <c r="D140">
         <v>27868</v>
       </c>
       <c r="E140">
-        <v>27971</v>
+        <v>27950</v>
       </c>
       <c r="F140">
         <v>70787</v>
       </c>
       <c r="G140">
-        <v>70727</v>
+        <v>70684</v>
       </c>
       <c r="H140">
         <v>122590</v>
       </c>
       <c r="I140">
-        <v>121225</v>
+        <v>121135</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4898,25 +4898,25 @@
         <v>5175</v>
       </c>
       <c r="C141">
-        <v>5092</v>
+        <v>5102</v>
       </c>
       <c r="D141">
         <v>29142</v>
       </c>
       <c r="E141">
-        <v>28403</v>
+        <v>28390</v>
       </c>
       <c r="F141">
         <v>71009</v>
       </c>
       <c r="G141">
-        <v>70222</v>
+        <v>70212</v>
       </c>
       <c r="H141">
         <v>118919</v>
       </c>
       <c r="I141">
-        <v>118771</v>
+        <v>118723</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4927,25 +4927,25 @@
         <v>5548</v>
       </c>
       <c r="C142">
-        <v>5769</v>
+        <v>5750</v>
       </c>
       <c r="D142">
         <v>30207</v>
       </c>
       <c r="E142">
-        <v>30514</v>
+        <v>30529</v>
       </c>
       <c r="F142">
         <v>70529</v>
       </c>
       <c r="G142">
-        <v>71054</v>
+        <v>71095</v>
       </c>
       <c r="H142">
         <v>117910</v>
       </c>
       <c r="I142">
-        <v>119568</v>
+        <v>119667</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4956,25 +4956,25 @@
         <v>6305</v>
       </c>
       <c r="C143">
-        <v>6271</v>
+        <v>6239</v>
       </c>
       <c r="D143">
         <v>34594</v>
       </c>
       <c r="E143">
-        <v>33969</v>
+        <v>34039</v>
       </c>
       <c r="F143">
-        <v>72656</v>
+        <v>72780</v>
       </c>
       <c r="G143">
-        <v>72468</v>
+        <v>72664</v>
       </c>
       <c r="H143">
-        <v>122300</v>
+        <v>122409</v>
       </c>
       <c r="I143">
-        <v>121654</v>
+        <v>121978</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/2/Agregados promedios 1985 a 2021 - Trimestral.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Trimestral.xlsx
@@ -885,7 +885,7 @@
         <v>5677</v>
       </c>
       <c r="I2">
-        <v>5602</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -914,7 +914,7 @@
         <v>5828</v>
       </c>
       <c r="I3">
-        <v>5781</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -954,7 +954,7 @@
         <v>378</v>
       </c>
       <c r="C5">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5">
         <v>1072</v>
@@ -966,7 +966,7 @@
         <v>3753</v>
       </c>
       <c r="G5">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="H5">
         <v>6267</v>
@@ -1030,7 +1030,7 @@
         <v>6765</v>
       </c>
       <c r="I7">
-        <v>6709</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1117,7 +1117,7 @@
         <v>7612</v>
       </c>
       <c r="I10">
-        <v>7492</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1146,7 +1146,7 @@
         <v>7929</v>
       </c>
       <c r="I11">
-        <v>7880</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1262,7 +1262,7 @@
         <v>9475</v>
       </c>
       <c r="I15">
-        <v>9435</v>
+        <v>9438</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1343,7 +1343,7 @@
         <v>5364</v>
       </c>
       <c r="G18">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="H18">
         <v>10674</v>
@@ -1378,7 +1378,7 @@
         <v>10795</v>
       </c>
       <c r="I19">
-        <v>10766</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1401,7 +1401,7 @@
         <v>5194</v>
       </c>
       <c r="G20">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="H20">
         <v>10788</v>
@@ -1459,7 +1459,7 @@
         <v>5714</v>
       </c>
       <c r="G22">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="H22">
         <v>12208</v>
@@ -1494,7 +1494,7 @@
         <v>12151</v>
       </c>
       <c r="I23">
-        <v>12153</v>
+        <v>12155</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1523,7 +1523,7 @@
         <v>12784</v>
       </c>
       <c r="I24">
-        <v>12861</v>
+        <v>12862</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1581,7 +1581,7 @@
         <v>14246</v>
       </c>
       <c r="I26">
-        <v>13995</v>
+        <v>13994</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1610,7 +1610,7 @@
         <v>14540</v>
       </c>
       <c r="I27">
-        <v>14542</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1633,13 +1633,13 @@
         <v>7166</v>
       </c>
       <c r="G28">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="H28">
         <v>14561</v>
       </c>
       <c r="I28">
-        <v>14681</v>
+        <v>14682</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1662,7 +1662,7 @@
         <v>7550</v>
       </c>
       <c r="G29">
-        <v>7523</v>
+        <v>7522</v>
       </c>
       <c r="H29">
         <v>15260</v>
@@ -1691,13 +1691,13 @@
         <v>7859</v>
       </c>
       <c r="G30">
-        <v>7744</v>
+        <v>7745</v>
       </c>
       <c r="H30">
         <v>15793</v>
       </c>
       <c r="I30">
-        <v>15557</v>
+        <v>15556</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1720,7 +1720,7 @@
         <v>8052</v>
       </c>
       <c r="G31">
-        <v>8033</v>
+        <v>8034</v>
       </c>
       <c r="H31">
         <v>16136</v>
@@ -1778,13 +1778,13 @@
         <v>8440</v>
       </c>
       <c r="G33">
-        <v>8415</v>
+        <v>8416</v>
       </c>
       <c r="H33">
         <v>17153</v>
       </c>
       <c r="I33">
-        <v>17075</v>
+        <v>17076</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1807,7 +1807,7 @@
         <v>8607</v>
       </c>
       <c r="G34">
-        <v>8502</v>
+        <v>8503</v>
       </c>
       <c r="H34">
         <v>17396</v>
@@ -1842,7 +1842,7 @@
         <v>17319</v>
       </c>
       <c r="I35">
-        <v>17320</v>
+        <v>17319</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1865,7 +1865,7 @@
         <v>8842</v>
       </c>
       <c r="G36">
-        <v>8903</v>
+        <v>8902</v>
       </c>
       <c r="H36">
         <v>17870</v>
@@ -1894,7 +1894,7 @@
         <v>9172</v>
       </c>
       <c r="G37">
-        <v>9141</v>
+        <v>9142</v>
       </c>
       <c r="H37">
         <v>18856</v>
@@ -1923,7 +1923,7 @@
         <v>9599</v>
       </c>
       <c r="G38">
-        <v>9505</v>
+        <v>9507</v>
       </c>
       <c r="H38">
         <v>19356</v>
@@ -1952,7 +1952,7 @@
         <v>9955</v>
       </c>
       <c r="G39">
-        <v>9897</v>
+        <v>9899</v>
       </c>
       <c r="H39">
         <v>19930</v>
@@ -1981,7 +1981,7 @@
         <v>10134</v>
       </c>
       <c r="G40">
-        <v>10176</v>
+        <v>10177</v>
       </c>
       <c r="H40">
         <v>20138</v>
@@ -2010,13 +2010,13 @@
         <v>10517</v>
       </c>
       <c r="G41">
-        <v>10499</v>
+        <v>10501</v>
       </c>
       <c r="H41">
         <v>20959</v>
       </c>
       <c r="I41">
-        <v>20838</v>
+        <v>20839</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2039,7 +2039,7 @@
         <v>11044</v>
       </c>
       <c r="G42">
-        <v>10967</v>
+        <v>10969</v>
       </c>
       <c r="H42">
         <v>21609</v>
@@ -2068,7 +2068,7 @@
         <v>11416</v>
       </c>
       <c r="G43">
-        <v>11342</v>
+        <v>11345</v>
       </c>
       <c r="H43">
         <v>21960</v>
@@ -2126,7 +2126,7 @@
         <v>12135</v>
       </c>
       <c r="G45">
-        <v>12138</v>
+        <v>12140</v>
       </c>
       <c r="H45">
         <v>23370</v>
@@ -2155,7 +2155,7 @@
         <v>12508</v>
       </c>
       <c r="G46">
-        <v>12519</v>
+        <v>12520</v>
       </c>
       <c r="H46">
         <v>24029</v>
@@ -2184,7 +2184,7 @@
         <v>13107</v>
       </c>
       <c r="G47">
-        <v>13025</v>
+        <v>13028</v>
       </c>
       <c r="H47">
         <v>25102</v>
@@ -2213,7 +2213,7 @@
         <v>13363</v>
       </c>
       <c r="G48">
-        <v>13419</v>
+        <v>13421</v>
       </c>
       <c r="H48">
         <v>25573</v>
@@ -2242,13 +2242,13 @@
         <v>14074</v>
       </c>
       <c r="G49">
-        <v>14067</v>
+        <v>14072</v>
       </c>
       <c r="H49">
         <v>26578</v>
       </c>
       <c r="I49">
-        <v>26444</v>
+        <v>26445</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2271,7 +2271,7 @@
         <v>14310</v>
       </c>
       <c r="G50">
-        <v>14352</v>
+        <v>14353</v>
       </c>
       <c r="H50">
         <v>26372</v>
@@ -2300,7 +2300,7 @@
         <v>14572</v>
       </c>
       <c r="G51">
-        <v>14463</v>
+        <v>14468</v>
       </c>
       <c r="H51">
         <v>26781</v>
@@ -2329,7 +2329,7 @@
         <v>14491</v>
       </c>
       <c r="G52">
-        <v>14605</v>
+        <v>14607</v>
       </c>
       <c r="H52">
         <v>26650</v>
@@ -2358,7 +2358,7 @@
         <v>14458</v>
       </c>
       <c r="G53">
-        <v>14487</v>
+        <v>14488</v>
       </c>
       <c r="H53">
         <v>27027</v>
@@ -2387,7 +2387,7 @@
         <v>14430</v>
       </c>
       <c r="G54">
-        <v>14494</v>
+        <v>14496</v>
       </c>
       <c r="H54">
         <v>27159</v>
@@ -2416,13 +2416,13 @@
         <v>15309</v>
       </c>
       <c r="G55">
-        <v>15202</v>
+        <v>15208</v>
       </c>
       <c r="H55">
         <v>28517</v>
       </c>
       <c r="I55">
-        <v>28490</v>
+        <v>28491</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2445,7 +2445,7 @@
         <v>15491</v>
       </c>
       <c r="G56">
-        <v>15617</v>
+        <v>15620</v>
       </c>
       <c r="H56">
         <v>28656</v>
@@ -2474,7 +2474,7 @@
         <v>15769</v>
       </c>
       <c r="G57">
-        <v>15757</v>
+        <v>15760</v>
       </c>
       <c r="H57">
         <v>29527</v>
@@ -2503,7 +2503,7 @@
         <v>15681</v>
       </c>
       <c r="G58">
-        <v>15730</v>
+        <v>15731</v>
       </c>
       <c r="H58">
         <v>29346</v>
@@ -2532,7 +2532,7 @@
         <v>16055</v>
       </c>
       <c r="G59">
-        <v>15958</v>
+        <v>15962</v>
       </c>
       <c r="H59">
         <v>30051</v>
@@ -2561,13 +2561,13 @@
         <v>15880</v>
       </c>
       <c r="G60">
-        <v>15997</v>
+        <v>15999</v>
       </c>
       <c r="H60">
         <v>30475</v>
       </c>
       <c r="I60">
-        <v>30588</v>
+        <v>30589</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2590,7 +2590,7 @@
         <v>16498</v>
       </c>
       <c r="G61">
-        <v>16448</v>
+        <v>16450</v>
       </c>
       <c r="H61">
         <v>31592</v>
@@ -2607,7 +2607,7 @@
         <v>800</v>
       </c>
       <c r="C62">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D62">
         <v>3018</v>
@@ -2619,13 +2619,13 @@
         <v>16597</v>
       </c>
       <c r="G62">
-        <v>16594</v>
+        <v>16592</v>
       </c>
       <c r="H62">
         <v>31770</v>
       </c>
       <c r="I62">
-        <v>31781</v>
+        <v>31780</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2648,7 +2648,7 @@
         <v>16930</v>
       </c>
       <c r="G63">
-        <v>16833</v>
+        <v>16837</v>
       </c>
       <c r="H63">
         <v>32453</v>
@@ -2677,13 +2677,13 @@
         <v>16505</v>
       </c>
       <c r="G64">
-        <v>16669</v>
+        <v>16668</v>
       </c>
       <c r="H64">
         <v>33048</v>
       </c>
       <c r="I64">
-        <v>33177</v>
+        <v>33176</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2735,13 +2735,13 @@
         <v>17224</v>
       </c>
       <c r="G66">
-        <v>17171</v>
+        <v>17172</v>
       </c>
       <c r="H66">
         <v>34255</v>
       </c>
       <c r="I66">
-        <v>34267</v>
+        <v>34268</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2764,7 +2764,7 @@
         <v>17412</v>
       </c>
       <c r="G67">
-        <v>17359</v>
+        <v>17362</v>
       </c>
       <c r="H67">
         <v>34445</v>
@@ -2822,13 +2822,13 @@
         <v>17937</v>
       </c>
       <c r="G69">
-        <v>17871</v>
+        <v>17870</v>
       </c>
       <c r="H69">
         <v>35105</v>
       </c>
       <c r="I69">
-        <v>34903</v>
+        <v>34902</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2845,13 +2845,13 @@
         <v>3990</v>
       </c>
       <c r="E70">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="F70">
         <v>18081</v>
       </c>
       <c r="G70">
-        <v>17946</v>
+        <v>17944</v>
       </c>
       <c r="H70">
         <v>35565</v>
@@ -2880,13 +2880,13 @@
         <v>17276</v>
       </c>
       <c r="G71">
-        <v>17245</v>
+        <v>17248</v>
       </c>
       <c r="H71">
         <v>35529</v>
       </c>
       <c r="I71">
-        <v>35558</v>
+        <v>35557</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2909,7 +2909,7 @@
         <v>16924</v>
       </c>
       <c r="G72">
-        <v>17103</v>
+        <v>17102</v>
       </c>
       <c r="H72">
         <v>35622</v>
@@ -2938,7 +2938,7 @@
         <v>17326</v>
       </c>
       <c r="G73">
-        <v>17228</v>
+        <v>17230</v>
       </c>
       <c r="H73">
         <v>36016</v>
@@ -2996,7 +2996,7 @@
         <v>18145</v>
       </c>
       <c r="G75">
-        <v>18114</v>
+        <v>18119</v>
       </c>
       <c r="H75">
         <v>36902</v>
@@ -3025,7 +3025,7 @@
         <v>19233</v>
       </c>
       <c r="G76">
-        <v>19460</v>
+        <v>19459</v>
       </c>
       <c r="H76">
         <v>37865</v>
@@ -3042,7 +3042,7 @@
         <v>1112</v>
       </c>
       <c r="C77">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D77">
         <v>5112</v>
@@ -3112,7 +3112,7 @@
         <v>21749</v>
       </c>
       <c r="G79">
-        <v>21741</v>
+        <v>21744</v>
       </c>
       <c r="H79">
         <v>40374</v>
@@ -3164,13 +3164,13 @@
         <v>5485</v>
       </c>
       <c r="E81">
-        <v>5331</v>
+        <v>5332</v>
       </c>
       <c r="F81">
         <v>24019</v>
       </c>
       <c r="G81">
-        <v>23820</v>
+        <v>23818</v>
       </c>
       <c r="H81">
         <v>42456</v>
@@ -3199,13 +3199,13 @@
         <v>24501</v>
       </c>
       <c r="G82">
-        <v>24246</v>
+        <v>24247</v>
       </c>
       <c r="H82">
         <v>42693</v>
       </c>
       <c r="I82">
-        <v>42591</v>
+        <v>42592</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3228,7 +3228,7 @@
         <v>25103</v>
       </c>
       <c r="G83">
-        <v>25075</v>
+        <v>25079</v>
       </c>
       <c r="H83">
         <v>43110</v>
@@ -3286,7 +3286,7 @@
         <v>27261</v>
       </c>
       <c r="G85">
-        <v>27017</v>
+        <v>27016</v>
       </c>
       <c r="H85">
         <v>45886</v>
@@ -3315,7 +3315,7 @@
         <v>28350</v>
       </c>
       <c r="G86">
-        <v>28072</v>
+        <v>28070</v>
       </c>
       <c r="H86">
         <v>47015</v>
@@ -3350,7 +3350,7 @@
         <v>47826</v>
       </c>
       <c r="I87">
-        <v>47696</v>
+        <v>47695</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3373,7 +3373,7 @@
         <v>28911</v>
       </c>
       <c r="G88">
-        <v>29183</v>
+        <v>29181</v>
       </c>
       <c r="H88">
         <v>47385</v>
@@ -3402,7 +3402,7 @@
         <v>30832</v>
       </c>
       <c r="G89">
-        <v>30554</v>
+        <v>30552</v>
       </c>
       <c r="H89">
         <v>49193</v>
@@ -3431,7 +3431,7 @@
         <v>31668</v>
       </c>
       <c r="G90">
-        <v>31485</v>
+        <v>31484</v>
       </c>
       <c r="H90">
         <v>49501</v>
@@ -3454,13 +3454,13 @@
         <v>6583</v>
       </c>
       <c r="E91">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="F91">
         <v>31615</v>
       </c>
       <c r="G91">
-        <v>31594</v>
+        <v>31592</v>
       </c>
       <c r="H91">
         <v>50859</v>
@@ -3489,7 +3489,7 @@
         <v>31195</v>
       </c>
       <c r="G92">
-        <v>31496</v>
+        <v>31495</v>
       </c>
       <c r="H92">
         <v>51841</v>
@@ -3512,19 +3512,19 @@
         <v>6604</v>
       </c>
       <c r="E93">
-        <v>6421</v>
+        <v>6420</v>
       </c>
       <c r="F93">
         <v>33701</v>
       </c>
       <c r="G93">
-        <v>33344</v>
+        <v>33350</v>
       </c>
       <c r="H93">
         <v>54264</v>
       </c>
       <c r="I93">
-        <v>53866</v>
+        <v>53867</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3576,7 +3576,7 @@
         <v>33313</v>
       </c>
       <c r="G95">
-        <v>33270</v>
+        <v>33269</v>
       </c>
       <c r="H95">
         <v>54916</v>
@@ -3605,13 +3605,13 @@
         <v>33404</v>
       </c>
       <c r="G96">
-        <v>33686</v>
+        <v>33689</v>
       </c>
       <c r="H96">
         <v>54976</v>
       </c>
       <c r="I96">
-        <v>55298</v>
+        <v>55299</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3634,7 +3634,7 @@
         <v>33710</v>
       </c>
       <c r="G97">
-        <v>33465</v>
+        <v>33461</v>
       </c>
       <c r="H97">
         <v>55624</v>
@@ -3663,7 +3663,7 @@
         <v>34755</v>
       </c>
       <c r="G98">
-        <v>34688</v>
+        <v>34686</v>
       </c>
       <c r="H98">
         <v>56973</v>
@@ -3692,7 +3692,7 @@
         <v>35151</v>
       </c>
       <c r="G99">
-        <v>35043</v>
+        <v>35044</v>
       </c>
       <c r="H99">
         <v>57832</v>
@@ -3721,7 +3721,7 @@
         <v>34839</v>
       </c>
       <c r="G100">
-        <v>35080</v>
+        <v>35082</v>
       </c>
       <c r="H100">
         <v>57744</v>
@@ -3750,7 +3750,7 @@
         <v>36159</v>
       </c>
       <c r="G101">
-        <v>35882</v>
+        <v>35886</v>
       </c>
       <c r="H101">
         <v>60383</v>
@@ -3779,7 +3779,7 @@
         <v>36458</v>
       </c>
       <c r="G102">
-        <v>36500</v>
+        <v>36495</v>
       </c>
       <c r="H102">
         <v>61762</v>
@@ -3808,7 +3808,7 @@
         <v>38399</v>
       </c>
       <c r="G103">
-        <v>38287</v>
+        <v>38285</v>
       </c>
       <c r="H103">
         <v>64118</v>
@@ -3837,7 +3837,7 @@
         <v>40248</v>
       </c>
       <c r="G104">
-        <v>40334</v>
+        <v>40337</v>
       </c>
       <c r="H104">
         <v>67199</v>
@@ -3866,13 +3866,13 @@
         <v>42185</v>
       </c>
       <c r="G105">
-        <v>41801</v>
+        <v>41805</v>
       </c>
       <c r="H105">
         <v>69901</v>
       </c>
       <c r="I105">
-        <v>69618</v>
+        <v>69619</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3895,7 +3895,7 @@
         <v>42437</v>
       </c>
       <c r="G106">
-        <v>42534</v>
+        <v>42526</v>
       </c>
       <c r="H106">
         <v>71256</v>
@@ -3924,13 +3924,13 @@
         <v>45369</v>
       </c>
       <c r="G107">
-        <v>45144</v>
+        <v>45140</v>
       </c>
       <c r="H107">
         <v>74190</v>
       </c>
       <c r="I107">
-        <v>73863</v>
+        <v>73862</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3953,7 +3953,7 @@
         <v>45928</v>
       </c>
       <c r="G108">
-        <v>45985</v>
+        <v>45984</v>
       </c>
       <c r="H108">
         <v>74307</v>
@@ -3982,13 +3982,13 @@
         <v>46672</v>
       </c>
       <c r="G109">
-        <v>46331</v>
+        <v>46335</v>
       </c>
       <c r="H109">
         <v>75249</v>
       </c>
       <c r="I109">
-        <v>75163</v>
+        <v>75164</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4011,13 +4011,13 @@
         <v>47397</v>
       </c>
       <c r="G110">
-        <v>47587</v>
+        <v>47585</v>
       </c>
       <c r="H110">
         <v>76650</v>
       </c>
       <c r="I110">
-        <v>77172</v>
+        <v>77173</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4040,7 +4040,7 @@
         <v>49461</v>
       </c>
       <c r="G111">
-        <v>49328</v>
+        <v>49325</v>
       </c>
       <c r="H111">
         <v>80028</v>
@@ -4069,7 +4069,7 @@
         <v>49966</v>
       </c>
       <c r="G112">
-        <v>50074</v>
+        <v>50072</v>
       </c>
       <c r="H112">
         <v>81856</v>
@@ -4098,13 +4098,13 @@
         <v>50386</v>
       </c>
       <c r="G113">
-        <v>49924</v>
+        <v>49929</v>
       </c>
       <c r="H113">
         <v>81611</v>
       </c>
       <c r="I113">
-        <v>81365</v>
+        <v>81366</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4127,7 +4127,7 @@
         <v>50428</v>
       </c>
       <c r="G114">
-        <v>50613</v>
+        <v>50609</v>
       </c>
       <c r="H114">
         <v>82455</v>
@@ -4156,7 +4156,7 @@
         <v>50022</v>
       </c>
       <c r="G115">
-        <v>49958</v>
+        <v>49951</v>
       </c>
       <c r="H115">
         <v>83637</v>
@@ -4179,7 +4179,7 @@
         <v>12391</v>
       </c>
       <c r="E116">
-        <v>12527</v>
+        <v>12528</v>
       </c>
       <c r="F116">
         <v>50296</v>
@@ -4214,13 +4214,13 @@
         <v>52830</v>
       </c>
       <c r="G117">
-        <v>52205</v>
+        <v>52222</v>
       </c>
       <c r="H117">
         <v>86809</v>
       </c>
       <c r="I117">
-        <v>86551</v>
+        <v>86556</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4243,13 +4243,13 @@
         <v>52112</v>
       </c>
       <c r="G118">
-        <v>52288</v>
+        <v>52293</v>
       </c>
       <c r="H118">
         <v>86745</v>
       </c>
       <c r="I118">
-        <v>87406</v>
+        <v>87408</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4272,13 +4272,13 @@
         <v>52991</v>
       </c>
       <c r="G119">
-        <v>52981</v>
+        <v>52975</v>
       </c>
       <c r="H119">
         <v>88366</v>
       </c>
       <c r="I119">
-        <v>88182</v>
+        <v>88183</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4301,13 +4301,13 @@
         <v>54276</v>
       </c>
       <c r="G120">
-        <v>54385</v>
+        <v>54389</v>
       </c>
       <c r="H120">
         <v>91238</v>
       </c>
       <c r="I120">
-        <v>90864</v>
+        <v>90866</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4330,13 +4330,13 @@
         <v>56139</v>
       </c>
       <c r="G121">
-        <v>55527</v>
+        <v>55529</v>
       </c>
       <c r="H121">
         <v>93214</v>
       </c>
       <c r="I121">
-        <v>93016</v>
+        <v>93024</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4347,25 +4347,25 @@
         <v>2848</v>
       </c>
       <c r="C122">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="D122">
         <v>13793</v>
       </c>
       <c r="E122">
-        <v>13794</v>
+        <v>13795</v>
       </c>
       <c r="F122">
         <v>56187</v>
       </c>
       <c r="G122">
-        <v>56541</v>
+        <v>56549</v>
       </c>
       <c r="H122">
         <v>92661</v>
       </c>
       <c r="I122">
-        <v>93575</v>
+        <v>93578</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4388,13 +4388,13 @@
         <v>56617</v>
       </c>
       <c r="G123">
-        <v>56649</v>
+        <v>56643</v>
       </c>
       <c r="H123">
         <v>94503</v>
       </c>
       <c r="I123">
-        <v>94417</v>
+        <v>94420</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4423,7 +4423,7 @@
         <v>97175</v>
       </c>
       <c r="I124">
-        <v>96481</v>
+        <v>96482</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4446,13 +4446,13 @@
         <v>58716</v>
       </c>
       <c r="G125">
-        <v>57804</v>
+        <v>57810</v>
       </c>
       <c r="H125">
         <v>98249</v>
       </c>
       <c r="I125">
-        <v>97792</v>
+        <v>97805</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4475,13 +4475,13 @@
         <v>57528</v>
       </c>
       <c r="G126">
-        <v>57771</v>
+        <v>57783</v>
       </c>
       <c r="H126">
         <v>98638</v>
       </c>
       <c r="I126">
-        <v>99638</v>
+        <v>99643</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4510,7 +4510,7 @@
         <v>100766</v>
       </c>
       <c r="I127">
-        <v>100560</v>
+        <v>100564</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4521,25 +4521,25 @@
         <v>2987</v>
       </c>
       <c r="C128">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="D128">
         <v>14723</v>
       </c>
       <c r="E128">
-        <v>14870</v>
+        <v>14869</v>
       </c>
       <c r="F128">
         <v>59454</v>
       </c>
       <c r="G128">
-        <v>59273</v>
+        <v>59271</v>
       </c>
       <c r="H128">
         <v>101657</v>
       </c>
       <c r="I128">
-        <v>100720</v>
+        <v>100723</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4562,13 +4562,13 @@
         <v>60217</v>
       </c>
       <c r="G129">
-        <v>59272</v>
+        <v>59274</v>
       </c>
       <c r="H129">
         <v>100900</v>
       </c>
       <c r="I129">
-        <v>100405</v>
+        <v>100420</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4579,7 +4579,7 @@
         <v>3035</v>
       </c>
       <c r="C130">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="D130">
         <v>15656</v>
@@ -4591,13 +4591,13 @@
         <v>60811</v>
       </c>
       <c r="G130">
-        <v>61259</v>
+        <v>61267</v>
       </c>
       <c r="H130">
         <v>100778</v>
       </c>
       <c r="I130">
-        <v>101962</v>
+        <v>101968</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4608,25 +4608,25 @@
         <v>3006</v>
       </c>
       <c r="C131">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D131">
         <v>16154</v>
       </c>
       <c r="E131">
-        <v>15988</v>
+        <v>15989</v>
       </c>
       <c r="F131">
         <v>63098</v>
       </c>
       <c r="G131">
-        <v>62945</v>
+        <v>62954</v>
       </c>
       <c r="H131">
         <v>104275</v>
       </c>
       <c r="I131">
-        <v>103958</v>
+        <v>103959</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4637,25 +4637,25 @@
         <v>3058</v>
       </c>
       <c r="C132">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="D132">
         <v>16139</v>
       </c>
       <c r="E132">
-        <v>16186</v>
+        <v>16185</v>
       </c>
       <c r="F132">
         <v>63353</v>
       </c>
       <c r="G132">
-        <v>63159</v>
+        <v>63146</v>
       </c>
       <c r="H132">
         <v>106537</v>
       </c>
       <c r="I132">
-        <v>105333</v>
+        <v>105331</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4666,7 +4666,7 @@
         <v>3110</v>
       </c>
       <c r="C133">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D133">
         <v>16729</v>
@@ -4678,13 +4678,13 @@
         <v>64961</v>
       </c>
       <c r="G133">
-        <v>64044</v>
+        <v>64036</v>
       </c>
       <c r="H133">
         <v>109083</v>
       </c>
       <c r="I133">
-        <v>108822</v>
+        <v>108835</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4695,7 +4695,7 @@
         <v>3060</v>
       </c>
       <c r="C134">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="D134">
         <v>16530</v>
@@ -4707,13 +4707,13 @@
         <v>64035</v>
       </c>
       <c r="G134">
-        <v>64373</v>
+        <v>64391</v>
       </c>
       <c r="H134">
         <v>109195</v>
       </c>
       <c r="I134">
-        <v>110470</v>
+        <v>110481</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4724,25 +4724,25 @@
         <v>3063</v>
       </c>
       <c r="C135">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="D135">
         <v>17123</v>
       </c>
       <c r="E135">
-        <v>16889</v>
+        <v>16893</v>
       </c>
       <c r="F135">
         <v>65189</v>
       </c>
       <c r="G135">
-        <v>65098</v>
+        <v>65125</v>
       </c>
       <c r="H135">
         <v>112754</v>
       </c>
       <c r="I135">
-        <v>112454</v>
+        <v>112452</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4753,25 +4753,25 @@
         <v>3140</v>
       </c>
       <c r="C136">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="D136">
         <v>17763</v>
       </c>
       <c r="E136">
-        <v>17771</v>
+        <v>17767</v>
       </c>
       <c r="F136">
         <v>66832</v>
       </c>
       <c r="G136">
-        <v>66684</v>
+        <v>66664</v>
       </c>
       <c r="H136">
         <v>115725</v>
       </c>
       <c r="I136">
-        <v>114353</v>
+        <v>114345</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4782,25 +4782,25 @@
         <v>3380</v>
       </c>
       <c r="C137">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="D137">
         <v>19470</v>
       </c>
       <c r="E137">
-        <v>19027</v>
+        <v>19026</v>
       </c>
       <c r="F137">
         <v>69582</v>
       </c>
       <c r="G137">
-        <v>68619</v>
+        <v>68606</v>
       </c>
       <c r="H137">
         <v>117290</v>
       </c>
       <c r="I137">
-        <v>116841</v>
+        <v>116852</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4811,7 +4811,7 @@
         <v>3404</v>
       </c>
       <c r="C138">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="D138">
         <v>19887</v>
@@ -4823,13 +4823,13 @@
         <v>68893</v>
       </c>
       <c r="G138">
-        <v>69435</v>
+        <v>69453</v>
       </c>
       <c r="H138">
         <v>116703</v>
       </c>
       <c r="I138">
-        <v>118312</v>
+        <v>118328</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4840,25 +4840,25 @@
         <v>3866</v>
       </c>
       <c r="C139">
-        <v>3844</v>
+        <v>3850</v>
       </c>
       <c r="D139">
         <v>23344</v>
       </c>
       <c r="E139">
-        <v>22998</v>
+        <v>23007</v>
       </c>
       <c r="F139">
         <v>70154</v>
       </c>
       <c r="G139">
-        <v>70077</v>
+        <v>70117</v>
       </c>
       <c r="H139">
         <v>120075</v>
       </c>
       <c r="I139">
-        <v>119657</v>
+        <v>119652</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4869,25 +4869,25 @@
         <v>4941</v>
       </c>
       <c r="C140">
-        <v>4844</v>
+        <v>4837</v>
       </c>
       <c r="D140">
         <v>27868</v>
       </c>
       <c r="E140">
-        <v>27950</v>
+        <v>27938</v>
       </c>
       <c r="F140">
         <v>70787</v>
       </c>
       <c r="G140">
-        <v>70684</v>
+        <v>70662</v>
       </c>
       <c r="H140">
         <v>122590</v>
       </c>
       <c r="I140">
-        <v>121135</v>
+        <v>121118</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4898,25 +4898,25 @@
         <v>5175</v>
       </c>
       <c r="C141">
-        <v>5102</v>
+        <v>5098</v>
       </c>
       <c r="D141">
         <v>29142</v>
       </c>
       <c r="E141">
-        <v>28390</v>
+        <v>28387</v>
       </c>
       <c r="F141">
         <v>71009</v>
       </c>
       <c r="G141">
-        <v>70212</v>
+        <v>70192</v>
       </c>
       <c r="H141">
         <v>118919</v>
       </c>
       <c r="I141">
-        <v>118723</v>
+        <v>118726</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4927,25 +4927,25 @@
         <v>5548</v>
       </c>
       <c r="C142">
-        <v>5750</v>
+        <v>5754</v>
       </c>
       <c r="D142">
         <v>30207</v>
       </c>
       <c r="E142">
-        <v>30529</v>
+        <v>30531</v>
       </c>
       <c r="F142">
         <v>70529</v>
       </c>
       <c r="G142">
-        <v>71095</v>
+        <v>71116</v>
       </c>
       <c r="H142">
         <v>117910</v>
       </c>
       <c r="I142">
-        <v>119667</v>
+        <v>119689</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4956,25 +4956,25 @@
         <v>6305</v>
       </c>
       <c r="C143">
-        <v>6239</v>
+        <v>6252</v>
       </c>
       <c r="D143">
         <v>34594</v>
       </c>
       <c r="E143">
-        <v>34039</v>
+        <v>34057</v>
       </c>
       <c r="F143">
         <v>72780</v>
       </c>
       <c r="G143">
-        <v>72664</v>
+        <v>72723</v>
       </c>
       <c r="H143">
-        <v>122409</v>
+        <v>122459</v>
       </c>
       <c r="I143">
-        <v>121978</v>
+        <v>122031</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/2/Agregados promedios 1985 a 2021 - Trimestral.xlsx
+++ b/5/1/2/Agregados promedios 1985 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,7 +882,7 @@
         <v>3435</v>
       </c>
       <c r="G2">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="H2">
         <v>5677</v>
@@ -902,7 +905,7 @@
         <v>965</v>
       </c>
       <c r="E3">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F3">
         <v>3508</v>
@@ -995,7 +998,7 @@
         <v>3936</v>
       </c>
       <c r="G6">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="H6">
         <v>6513</v>
@@ -1088,7 +1091,7 @@
         <v>7251</v>
       </c>
       <c r="I9">
-        <v>7237</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1117,7 +1120,7 @@
         <v>7612</v>
       </c>
       <c r="I10">
-        <v>7493</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1134,7 +1137,7 @@
         <v>1204</v>
       </c>
       <c r="E11">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F11">
         <v>4594</v>
@@ -1204,7 +1207,7 @@
         <v>8528</v>
       </c>
       <c r="I13">
-        <v>8490</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1227,13 +1230,13 @@
         <v>5200</v>
       </c>
       <c r="G14">
-        <v>5138</v>
+        <v>5139</v>
       </c>
       <c r="H14">
         <v>9134</v>
       </c>
       <c r="I14">
-        <v>8989</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1250,7 +1253,7 @@
         <v>1307</v>
       </c>
       <c r="E15">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="F15">
         <v>5157</v>
@@ -1308,7 +1311,7 @@
         <v>1372</v>
       </c>
       <c r="E17">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F17">
         <v>5407</v>
@@ -1343,7 +1346,7 @@
         <v>5364</v>
       </c>
       <c r="G18">
-        <v>5284</v>
+        <v>5285</v>
       </c>
       <c r="H18">
         <v>10674</v>
@@ -1401,13 +1404,13 @@
         <v>5194</v>
       </c>
       <c r="G20">
-        <v>5234</v>
+        <v>5235</v>
       </c>
       <c r="H20">
         <v>10788</v>
       </c>
       <c r="I20">
-        <v>10852</v>
+        <v>10853</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1447,7 +1450,7 @@
         <v>479</v>
       </c>
       <c r="C22">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D22">
         <v>1533</v>
@@ -1459,7 +1462,7 @@
         <v>5714</v>
       </c>
       <c r="G22">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="H22">
         <v>12208</v>
@@ -1517,13 +1520,13 @@
         <v>6066</v>
       </c>
       <c r="G24">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="H24">
         <v>12784</v>
       </c>
       <c r="I24">
-        <v>12862</v>
+        <v>12861</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1540,19 +1543,19 @@
         <v>1527</v>
       </c>
       <c r="E25">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F25">
         <v>6467</v>
       </c>
       <c r="G25">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="H25">
         <v>13432</v>
       </c>
       <c r="I25">
-        <v>13358</v>
+        <v>13357</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1575,7 +1578,7 @@
         <v>7108</v>
       </c>
       <c r="G26">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="H26">
         <v>14246</v>
@@ -1656,13 +1659,13 @@
         <v>1760</v>
       </c>
       <c r="E29">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="F29">
         <v>7550</v>
       </c>
       <c r="G29">
-        <v>7522</v>
+        <v>7523</v>
       </c>
       <c r="H29">
         <v>15260</v>
@@ -1697,7 +1700,7 @@
         <v>15793</v>
       </c>
       <c r="I30">
-        <v>15556</v>
+        <v>15557</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1749,7 +1752,7 @@
         <v>8081</v>
       </c>
       <c r="G32">
-        <v>8170</v>
+        <v>8171</v>
       </c>
       <c r="H32">
         <v>16326</v>
@@ -1772,19 +1775,19 @@
         <v>1917</v>
       </c>
       <c r="E33">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="F33">
         <v>8440</v>
       </c>
       <c r="G33">
-        <v>8416</v>
+        <v>8417</v>
       </c>
       <c r="H33">
         <v>17153</v>
       </c>
       <c r="I33">
-        <v>17076</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1842,7 +1845,7 @@
         <v>17319</v>
       </c>
       <c r="I35">
-        <v>17319</v>
+        <v>17320</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1917,7 +1920,7 @@
         <v>2194</v>
       </c>
       <c r="E38">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="F38">
         <v>9599</v>
@@ -1958,7 +1961,7 @@
         <v>19930</v>
       </c>
       <c r="I39">
-        <v>19902</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2016,7 +2019,7 @@
         <v>20959</v>
       </c>
       <c r="I41">
-        <v>20839</v>
+        <v>20837</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2039,7 +2042,7 @@
         <v>11044</v>
       </c>
       <c r="G42">
-        <v>10969</v>
+        <v>10968</v>
       </c>
       <c r="H42">
         <v>21609</v>
@@ -2068,13 +2071,13 @@
         <v>11416</v>
       </c>
       <c r="G43">
-        <v>11345</v>
+        <v>11344</v>
       </c>
       <c r="H43">
         <v>21960</v>
       </c>
       <c r="I43">
-        <v>21912</v>
+        <v>21911</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2091,13 +2094,13 @@
         <v>2338</v>
       </c>
       <c r="E44">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="F44">
         <v>11610</v>
       </c>
       <c r="G44">
-        <v>11659</v>
+        <v>11658</v>
       </c>
       <c r="H44">
         <v>22758</v>
@@ -2126,13 +2129,13 @@
         <v>12135</v>
       </c>
       <c r="G45">
-        <v>12140</v>
+        <v>12138</v>
       </c>
       <c r="H45">
         <v>23370</v>
       </c>
       <c r="I45">
-        <v>23247</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2184,13 +2187,13 @@
         <v>13107</v>
       </c>
       <c r="G47">
-        <v>13028</v>
+        <v>13029</v>
       </c>
       <c r="H47">
         <v>25102</v>
       </c>
       <c r="I47">
-        <v>25053</v>
+        <v>25054</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2207,19 +2210,19 @@
         <v>2655</v>
       </c>
       <c r="E48">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="F48">
         <v>13363</v>
       </c>
       <c r="G48">
-        <v>13421</v>
+        <v>13420</v>
       </c>
       <c r="H48">
         <v>25573</v>
       </c>
       <c r="I48">
-        <v>25664</v>
+        <v>25663</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2242,13 +2245,13 @@
         <v>14074</v>
       </c>
       <c r="G49">
-        <v>14072</v>
+        <v>14070</v>
       </c>
       <c r="H49">
         <v>26578</v>
       </c>
       <c r="I49">
-        <v>26445</v>
+        <v>26442</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2265,19 +2268,19 @@
         <v>2680</v>
       </c>
       <c r="E50">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="F50">
         <v>14310</v>
       </c>
       <c r="G50">
-        <v>14353</v>
+        <v>14352</v>
       </c>
       <c r="H50">
         <v>26372</v>
       </c>
       <c r="I50">
-        <v>26348</v>
+        <v>26347</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2294,19 +2297,19 @@
         <v>2702</v>
       </c>
       <c r="E51">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F51">
         <v>14572</v>
       </c>
       <c r="G51">
-        <v>14468</v>
+        <v>14467</v>
       </c>
       <c r="H51">
         <v>26781</v>
       </c>
       <c r="I51">
-        <v>26702</v>
+        <v>26701</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2358,13 +2361,13 @@
         <v>14458</v>
       </c>
       <c r="G53">
-        <v>14488</v>
+        <v>14489</v>
       </c>
       <c r="H53">
         <v>27027</v>
       </c>
       <c r="I53">
-        <v>26915</v>
+        <v>26916</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2387,7 +2390,7 @@
         <v>14430</v>
       </c>
       <c r="G54">
-        <v>14496</v>
+        <v>14495</v>
       </c>
       <c r="H54">
         <v>27159</v>
@@ -2445,7 +2448,7 @@
         <v>15491</v>
       </c>
       <c r="G56">
-        <v>15620</v>
+        <v>15621</v>
       </c>
       <c r="H56">
         <v>28656</v>
@@ -2462,7 +2465,7 @@
         <v>854</v>
       </c>
       <c r="C57">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D57">
         <v>2935</v>
@@ -2497,19 +2500,19 @@
         <v>2710</v>
       </c>
       <c r="E58">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="F58">
         <v>15681</v>
       </c>
       <c r="G58">
-        <v>15731</v>
+        <v>15732</v>
       </c>
       <c r="H58">
         <v>29346</v>
       </c>
       <c r="I58">
-        <v>29403</v>
+        <v>29404</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2532,7 +2535,7 @@
         <v>16055</v>
       </c>
       <c r="G59">
-        <v>15962</v>
+        <v>15961</v>
       </c>
       <c r="H59">
         <v>30051</v>
@@ -2561,7 +2564,7 @@
         <v>15880</v>
       </c>
       <c r="G60">
-        <v>15999</v>
+        <v>16000</v>
       </c>
       <c r="H60">
         <v>30475</v>
@@ -2584,19 +2587,19 @@
         <v>2883</v>
       </c>
       <c r="E61">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="F61">
         <v>16498</v>
       </c>
       <c r="G61">
-        <v>16450</v>
+        <v>16448</v>
       </c>
       <c r="H61">
         <v>31592</v>
       </c>
       <c r="I61">
-        <v>31385</v>
+        <v>31384</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2619,13 +2622,13 @@
         <v>16597</v>
       </c>
       <c r="G62">
-        <v>16592</v>
+        <v>16593</v>
       </c>
       <c r="H62">
         <v>31770</v>
       </c>
       <c r="I62">
-        <v>31780</v>
+        <v>31781</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2648,7 +2651,7 @@
         <v>16930</v>
       </c>
       <c r="G63">
-        <v>16837</v>
+        <v>16836</v>
       </c>
       <c r="H63">
         <v>32453</v>
@@ -2665,7 +2668,7 @@
         <v>808</v>
       </c>
       <c r="C64">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D64">
         <v>3013</v>
@@ -2683,7 +2686,7 @@
         <v>33048</v>
       </c>
       <c r="I64">
-        <v>33176</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2706,13 +2709,13 @@
         <v>17011</v>
       </c>
       <c r="G65">
-        <v>16964</v>
+        <v>16966</v>
       </c>
       <c r="H65">
         <v>33956</v>
       </c>
       <c r="I65">
-        <v>33815</v>
+        <v>33817</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2741,7 +2744,7 @@
         <v>34255</v>
       </c>
       <c r="I66">
-        <v>34268</v>
+        <v>34266</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2764,7 +2767,7 @@
         <v>17412</v>
       </c>
       <c r="G67">
-        <v>17362</v>
+        <v>17361</v>
       </c>
       <c r="H67">
         <v>34445</v>
@@ -2787,19 +2790,19 @@
         <v>3339</v>
       </c>
       <c r="E68">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="F68">
         <v>17454</v>
       </c>
       <c r="G68">
-        <v>17629</v>
+        <v>17628</v>
       </c>
       <c r="H68">
         <v>34370</v>
       </c>
       <c r="I68">
-        <v>34516</v>
+        <v>34515</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2816,19 +2819,19 @@
         <v>3627</v>
       </c>
       <c r="E69">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="F69">
         <v>17937</v>
       </c>
       <c r="G69">
-        <v>17870</v>
+        <v>17868</v>
       </c>
       <c r="H69">
         <v>35105</v>
       </c>
       <c r="I69">
-        <v>34902</v>
+        <v>34901</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2845,13 +2848,13 @@
         <v>3990</v>
       </c>
       <c r="E70">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="F70">
         <v>18081</v>
       </c>
       <c r="G70">
-        <v>17944</v>
+        <v>17946</v>
       </c>
       <c r="H70">
         <v>35565</v>
@@ -2880,13 +2883,13 @@
         <v>17276</v>
       </c>
       <c r="G71">
-        <v>17248</v>
+        <v>17246</v>
       </c>
       <c r="H71">
         <v>35529</v>
       </c>
       <c r="I71">
-        <v>35557</v>
+        <v>35558</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2909,13 +2912,13 @@
         <v>16924</v>
       </c>
       <c r="G72">
-        <v>17102</v>
+        <v>17100</v>
       </c>
       <c r="H72">
         <v>35622</v>
       </c>
       <c r="I72">
-        <v>35772</v>
+        <v>35771</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2932,19 +2935,19 @@
         <v>4220</v>
       </c>
       <c r="E73">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="F73">
         <v>17326</v>
       </c>
       <c r="G73">
-        <v>17230</v>
+        <v>17228</v>
       </c>
       <c r="H73">
         <v>36016</v>
       </c>
       <c r="I73">
-        <v>35825</v>
+        <v>35824</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2967,13 +2970,13 @@
         <v>18087</v>
       </c>
       <c r="G74">
-        <v>17918</v>
+        <v>17919</v>
       </c>
       <c r="H74">
         <v>36803</v>
       </c>
       <c r="I74">
-        <v>36725</v>
+        <v>36724</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2996,13 +2999,13 @@
         <v>18145</v>
       </c>
       <c r="G75">
-        <v>18119</v>
+        <v>18116</v>
       </c>
       <c r="H75">
         <v>36902</v>
       </c>
       <c r="I75">
-        <v>36875</v>
+        <v>36874</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3019,19 +3022,19 @@
         <v>4737</v>
       </c>
       <c r="E76">
-        <v>4865</v>
+        <v>4866</v>
       </c>
       <c r="F76">
         <v>19233</v>
       </c>
       <c r="G76">
-        <v>19459</v>
+        <v>19460</v>
       </c>
       <c r="H76">
         <v>37865</v>
       </c>
       <c r="I76">
-        <v>38080</v>
+        <v>38081</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3054,13 +3057,13 @@
         <v>20081</v>
       </c>
       <c r="G77">
-        <v>19981</v>
+        <v>19982</v>
       </c>
       <c r="H77">
         <v>38888</v>
       </c>
       <c r="I77">
-        <v>38693</v>
+        <v>38694</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3077,7 +3080,7 @@
         <v>5112</v>
       </c>
       <c r="E78">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="F78">
         <v>20810</v>
@@ -3089,7 +3092,7 @@
         <v>39234</v>
       </c>
       <c r="I78">
-        <v>39162</v>
+        <v>39161</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3106,7 +3109,7 @@
         <v>5092</v>
       </c>
       <c r="E79">
-        <v>5073</v>
+        <v>5074</v>
       </c>
       <c r="F79">
         <v>21749</v>
@@ -3118,7 +3121,7 @@
         <v>40374</v>
       </c>
       <c r="I79">
-        <v>40366</v>
+        <v>40369</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3147,7 +3150,7 @@
         <v>40217</v>
       </c>
       <c r="I80">
-        <v>40355</v>
+        <v>40354</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3158,19 +3161,19 @@
         <v>1242</v>
       </c>
       <c r="C81">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D81">
         <v>5485</v>
       </c>
       <c r="E81">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="F81">
         <v>24019</v>
       </c>
       <c r="G81">
-        <v>23818</v>
+        <v>23819</v>
       </c>
       <c r="H81">
         <v>42456</v>
@@ -3193,19 +3196,19 @@
         <v>5425</v>
       </c>
       <c r="E82">
-        <v>5375</v>
+        <v>5376</v>
       </c>
       <c r="F82">
         <v>24501</v>
       </c>
       <c r="G82">
-        <v>24247</v>
+        <v>24249</v>
       </c>
       <c r="H82">
         <v>42693</v>
       </c>
       <c r="I82">
-        <v>42592</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3228,13 +3231,13 @@
         <v>25103</v>
       </c>
       <c r="G83">
-        <v>25079</v>
+        <v>25077</v>
       </c>
       <c r="H83">
         <v>43110</v>
       </c>
       <c r="I83">
-        <v>43022</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3251,13 +3254,13 @@
         <v>5573</v>
       </c>
       <c r="E84">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="F84">
         <v>26084</v>
       </c>
       <c r="G84">
-        <v>26297</v>
+        <v>26298</v>
       </c>
       <c r="H84">
         <v>44297</v>
@@ -3280,19 +3283,19 @@
         <v>6054</v>
       </c>
       <c r="E85">
-        <v>5860</v>
+        <v>5859</v>
       </c>
       <c r="F85">
         <v>27261</v>
       </c>
       <c r="G85">
-        <v>27016</v>
+        <v>27015</v>
       </c>
       <c r="H85">
         <v>45886</v>
       </c>
       <c r="I85">
-        <v>45495</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3315,7 +3318,7 @@
         <v>28350</v>
       </c>
       <c r="G86">
-        <v>28070</v>
+        <v>28071</v>
       </c>
       <c r="H86">
         <v>47015</v>
@@ -3350,7 +3353,7 @@
         <v>47826</v>
       </c>
       <c r="I87">
-        <v>47695</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3367,19 +3370,19 @@
         <v>6251</v>
       </c>
       <c r="E88">
-        <v>6333</v>
+        <v>6331</v>
       </c>
       <c r="F88">
         <v>28911</v>
       </c>
       <c r="G88">
-        <v>29181</v>
+        <v>29180</v>
       </c>
       <c r="H88">
         <v>47385</v>
       </c>
       <c r="I88">
-        <v>47592</v>
+        <v>47590</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3396,19 +3399,19 @@
         <v>6628</v>
       </c>
       <c r="E89">
-        <v>6445</v>
+        <v>6447</v>
       </c>
       <c r="F89">
         <v>30832</v>
       </c>
       <c r="G89">
-        <v>30552</v>
+        <v>30555</v>
       </c>
       <c r="H89">
         <v>49193</v>
       </c>
       <c r="I89">
-        <v>48871</v>
+        <v>48873</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3419,7 +3422,7 @@
         <v>1441</v>
       </c>
       <c r="C90">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D90">
         <v>6531</v>
@@ -3431,13 +3434,13 @@
         <v>31668</v>
       </c>
       <c r="G90">
-        <v>31484</v>
+        <v>31485</v>
       </c>
       <c r="H90">
         <v>49501</v>
       </c>
       <c r="I90">
-        <v>49517</v>
+        <v>49515</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3454,7 +3457,7 @@
         <v>6583</v>
       </c>
       <c r="E91">
-        <v>6533</v>
+        <v>6534</v>
       </c>
       <c r="F91">
         <v>31615</v>
@@ -3466,7 +3469,7 @@
         <v>50859</v>
       </c>
       <c r="I91">
-        <v>50770</v>
+        <v>50775</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3483,19 +3486,19 @@
         <v>6200</v>
       </c>
       <c r="E92">
-        <v>6271</v>
+        <v>6269</v>
       </c>
       <c r="F92">
         <v>31195</v>
       </c>
       <c r="G92">
-        <v>31495</v>
+        <v>31492</v>
       </c>
       <c r="H92">
         <v>51841</v>
       </c>
       <c r="I92">
-        <v>52120</v>
+        <v>52117</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3518,13 +3521,13 @@
         <v>33701</v>
       </c>
       <c r="G93">
-        <v>33350</v>
+        <v>33345</v>
       </c>
       <c r="H93">
         <v>54264</v>
       </c>
       <c r="I93">
-        <v>53867</v>
+        <v>53863</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3541,19 +3544,19 @@
         <v>6555</v>
       </c>
       <c r="E94">
-        <v>6554</v>
+        <v>6553</v>
       </c>
       <c r="F94">
         <v>33248</v>
       </c>
       <c r="G94">
-        <v>33073</v>
+        <v>33072</v>
       </c>
       <c r="H94">
         <v>54284</v>
       </c>
       <c r="I94">
-        <v>54340</v>
+        <v>54335</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3576,13 +3579,13 @@
         <v>33313</v>
       </c>
       <c r="G95">
-        <v>33269</v>
+        <v>33265</v>
       </c>
       <c r="H95">
         <v>54916</v>
       </c>
       <c r="I95">
-        <v>54744</v>
+        <v>54746</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3599,19 +3602,19 @@
         <v>7575</v>
       </c>
       <c r="E96">
-        <v>7642</v>
+        <v>7641</v>
       </c>
       <c r="F96">
         <v>33404</v>
       </c>
       <c r="G96">
-        <v>33689</v>
+        <v>33687</v>
       </c>
       <c r="H96">
         <v>54976</v>
       </c>
       <c r="I96">
-        <v>55299</v>
+        <v>55296</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3634,13 +3637,13 @@
         <v>33710</v>
       </c>
       <c r="G97">
-        <v>33461</v>
+        <v>33464</v>
       </c>
       <c r="H97">
         <v>55624</v>
       </c>
       <c r="I97">
-        <v>55360</v>
+        <v>55362</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3657,19 +3660,19 @@
         <v>8742</v>
       </c>
       <c r="E98">
-        <v>8756</v>
+        <v>8757</v>
       </c>
       <c r="F98">
         <v>34755</v>
       </c>
       <c r="G98">
-        <v>34686</v>
+        <v>34690</v>
       </c>
       <c r="H98">
         <v>56973</v>
       </c>
       <c r="I98">
-        <v>57178</v>
+        <v>57175</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3686,19 +3689,19 @@
         <v>9345</v>
       </c>
       <c r="E99">
-        <v>9182</v>
+        <v>9181</v>
       </c>
       <c r="F99">
         <v>35151</v>
       </c>
       <c r="G99">
-        <v>35044</v>
+        <v>35041</v>
       </c>
       <c r="H99">
         <v>57832</v>
       </c>
       <c r="I99">
-        <v>57627</v>
+        <v>57629</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3715,13 +3718,13 @@
         <v>9459</v>
       </c>
       <c r="E100">
-        <v>9487</v>
+        <v>9488</v>
       </c>
       <c r="F100">
         <v>34839</v>
       </c>
       <c r="G100">
-        <v>35082</v>
+        <v>35084</v>
       </c>
       <c r="H100">
         <v>57744</v>
@@ -3744,19 +3747,19 @@
         <v>9706</v>
       </c>
       <c r="E101">
-        <v>9543</v>
+        <v>9544</v>
       </c>
       <c r="F101">
         <v>36159</v>
       </c>
       <c r="G101">
-        <v>35886</v>
+        <v>35884</v>
       </c>
       <c r="H101">
         <v>60383</v>
       </c>
       <c r="I101">
-        <v>60158</v>
+        <v>60157</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3779,13 +3782,13 @@
         <v>36458</v>
       </c>
       <c r="G102">
-        <v>36495</v>
+        <v>36501</v>
       </c>
       <c r="H102">
         <v>61762</v>
       </c>
       <c r="I102">
-        <v>62063</v>
+        <v>62061</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3802,19 +3805,19 @@
         <v>9850</v>
       </c>
       <c r="E103">
-        <v>9695</v>
+        <v>9696</v>
       </c>
       <c r="F103">
         <v>38399</v>
       </c>
       <c r="G103">
-        <v>38285</v>
+        <v>38286</v>
       </c>
       <c r="H103">
         <v>64118</v>
       </c>
       <c r="I103">
-        <v>63916</v>
+        <v>63920</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3843,7 +3846,7 @@
         <v>67199</v>
       </c>
       <c r="I104">
-        <v>67278</v>
+        <v>67276</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3866,13 +3869,13 @@
         <v>42185</v>
       </c>
       <c r="G105">
-        <v>41805</v>
+        <v>41800</v>
       </c>
       <c r="H105">
         <v>69901</v>
       </c>
       <c r="I105">
-        <v>69619</v>
+        <v>69616</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3889,13 +3892,13 @@
         <v>10231</v>
       </c>
       <c r="E106">
-        <v>10291</v>
+        <v>10292</v>
       </c>
       <c r="F106">
         <v>42437</v>
       </c>
       <c r="G106">
-        <v>42526</v>
+        <v>42534</v>
       </c>
       <c r="H106">
         <v>71256</v>
@@ -3930,7 +3933,7 @@
         <v>74190</v>
       </c>
       <c r="I107">
-        <v>73862</v>
+        <v>73864</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3947,19 +3950,19 @@
         <v>10630</v>
       </c>
       <c r="E108">
-        <v>10632</v>
+        <v>10631</v>
       </c>
       <c r="F108">
         <v>45928</v>
       </c>
       <c r="G108">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="H108">
         <v>74307</v>
       </c>
       <c r="I108">
-        <v>74220</v>
+        <v>74219</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3976,13 +3979,13 @@
         <v>11166</v>
       </c>
       <c r="E109">
-        <v>10877</v>
+        <v>10879</v>
       </c>
       <c r="F109">
         <v>46672</v>
       </c>
       <c r="G109">
-        <v>46335</v>
+        <v>46332</v>
       </c>
       <c r="H109">
         <v>75249</v>
@@ -4011,13 +4014,13 @@
         <v>47397</v>
       </c>
       <c r="G110">
-        <v>47585</v>
+        <v>47589</v>
       </c>
       <c r="H110">
         <v>76650</v>
       </c>
       <c r="I110">
-        <v>77173</v>
+        <v>77170</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4040,13 +4043,13 @@
         <v>49461</v>
       </c>
       <c r="G111">
-        <v>49325</v>
+        <v>49323</v>
       </c>
       <c r="H111">
         <v>80028</v>
       </c>
       <c r="I111">
-        <v>79792</v>
+        <v>79789</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4057,25 +4060,25 @@
         <v>2556</v>
       </c>
       <c r="C112">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D112">
         <v>11810</v>
       </c>
       <c r="E112">
-        <v>11862</v>
+        <v>11861</v>
       </c>
       <c r="F112">
         <v>49966</v>
       </c>
       <c r="G112">
-        <v>50072</v>
+        <v>50070</v>
       </c>
       <c r="H112">
         <v>81856</v>
       </c>
       <c r="I112">
-        <v>81712</v>
+        <v>81710</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4086,25 +4089,25 @@
         <v>2598</v>
       </c>
       <c r="C113">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D113">
         <v>12239</v>
       </c>
       <c r="E113">
-        <v>11937</v>
+        <v>11933</v>
       </c>
       <c r="F113">
         <v>50386</v>
       </c>
       <c r="G113">
-        <v>49929</v>
+        <v>49912</v>
       </c>
       <c r="H113">
         <v>81611</v>
       </c>
       <c r="I113">
-        <v>81366</v>
+        <v>81360</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4127,13 +4130,13 @@
         <v>50428</v>
       </c>
       <c r="G114">
-        <v>50609</v>
+        <v>50617</v>
       </c>
       <c r="H114">
         <v>82455</v>
       </c>
       <c r="I114">
-        <v>83046</v>
+        <v>83048</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4150,19 +4153,19 @@
         <v>12489</v>
       </c>
       <c r="E115">
-        <v>12357</v>
+        <v>12358</v>
       </c>
       <c r="F115">
         <v>50022</v>
       </c>
       <c r="G115">
-        <v>49951</v>
+        <v>49952</v>
       </c>
       <c r="H115">
         <v>83637</v>
       </c>
       <c r="I115">
-        <v>83494</v>
+        <v>83493</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4173,25 +4176,25 @@
         <v>2603</v>
       </c>
       <c r="C116">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D116">
         <v>12391</v>
       </c>
       <c r="E116">
-        <v>12528</v>
+        <v>12525</v>
       </c>
       <c r="F116">
         <v>50296</v>
       </c>
       <c r="G116">
-        <v>50373</v>
+        <v>50371</v>
       </c>
       <c r="H116">
         <v>84512</v>
       </c>
       <c r="I116">
-        <v>84206</v>
+        <v>84205</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4202,25 +4205,25 @@
         <v>2734</v>
       </c>
       <c r="C117">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D117">
         <v>13504</v>
       </c>
       <c r="E117">
-        <v>13041</v>
+        <v>13039</v>
       </c>
       <c r="F117">
         <v>52830</v>
       </c>
       <c r="G117">
-        <v>52222</v>
+        <v>52201</v>
       </c>
       <c r="H117">
         <v>86809</v>
       </c>
       <c r="I117">
-        <v>86556</v>
+        <v>86549</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4231,25 +4234,25 @@
         <v>2716</v>
       </c>
       <c r="C118">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D118">
         <v>13145</v>
       </c>
       <c r="E118">
-        <v>13194</v>
+        <v>13192</v>
       </c>
       <c r="F118">
         <v>52112</v>
       </c>
       <c r="G118">
-        <v>52293</v>
+        <v>52297</v>
       </c>
       <c r="H118">
         <v>86745</v>
       </c>
       <c r="I118">
-        <v>87408</v>
+        <v>87405</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4260,25 +4263,25 @@
         <v>2783</v>
       </c>
       <c r="C119">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="D119">
         <v>13689</v>
       </c>
       <c r="E119">
-        <v>13516</v>
+        <v>13513</v>
       </c>
       <c r="F119">
         <v>52991</v>
       </c>
       <c r="G119">
-        <v>52975</v>
+        <v>52970</v>
       </c>
       <c r="H119">
         <v>88366</v>
       </c>
       <c r="I119">
-        <v>88183</v>
+        <v>88178</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4295,19 +4298,19 @@
         <v>13479</v>
       </c>
       <c r="E120">
-        <v>13690</v>
+        <v>13688</v>
       </c>
       <c r="F120">
         <v>54276</v>
       </c>
       <c r="G120">
-        <v>54389</v>
+        <v>54388</v>
       </c>
       <c r="H120">
         <v>91238</v>
       </c>
       <c r="I120">
-        <v>90866</v>
+        <v>90864</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4324,13 +4327,13 @@
         <v>14303</v>
       </c>
       <c r="E121">
-        <v>13846</v>
+        <v>13847</v>
       </c>
       <c r="F121">
         <v>56139</v>
       </c>
       <c r="G121">
-        <v>55529</v>
+        <v>55515</v>
       </c>
       <c r="H121">
         <v>93214</v>
@@ -4353,13 +4356,13 @@
         <v>13793</v>
       </c>
       <c r="E122">
-        <v>13795</v>
+        <v>13793</v>
       </c>
       <c r="F122">
         <v>56187</v>
       </c>
       <c r="G122">
-        <v>56549</v>
+        <v>56560</v>
       </c>
       <c r="H122">
         <v>92661</v>
@@ -4382,19 +4385,19 @@
         <v>13797</v>
       </c>
       <c r="E123">
-        <v>13639</v>
+        <v>13640</v>
       </c>
       <c r="F123">
         <v>56617</v>
       </c>
       <c r="G123">
-        <v>56643</v>
+        <v>56644</v>
       </c>
       <c r="H123">
         <v>94503</v>
       </c>
       <c r="I123">
-        <v>94420</v>
+        <v>94418</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4423,7 +4426,7 @@
         <v>97175</v>
       </c>
       <c r="I124">
-        <v>96482</v>
+        <v>96481</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4440,19 +4443,19 @@
         <v>14510</v>
       </c>
       <c r="E125">
-        <v>14087</v>
+        <v>14085</v>
       </c>
       <c r="F125">
         <v>58716</v>
       </c>
       <c r="G125">
-        <v>57810</v>
+        <v>57788</v>
       </c>
       <c r="H125">
         <v>98249</v>
       </c>
       <c r="I125">
-        <v>97805</v>
+        <v>97799</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4463,25 +4466,25 @@
         <v>2928</v>
       </c>
       <c r="C126">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="D126">
         <v>14203</v>
       </c>
       <c r="E126">
-        <v>14302</v>
+        <v>14304</v>
       </c>
       <c r="F126">
         <v>57528</v>
       </c>
       <c r="G126">
-        <v>57783</v>
+        <v>57799</v>
       </c>
       <c r="H126">
         <v>98638</v>
       </c>
       <c r="I126">
-        <v>99643</v>
+        <v>99647</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4492,7 +4495,7 @@
         <v>2964</v>
       </c>
       <c r="C127">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="D127">
         <v>14788</v>
@@ -4504,13 +4507,13 @@
         <v>58450</v>
       </c>
       <c r="G127">
-        <v>58412</v>
+        <v>58403</v>
       </c>
       <c r="H127">
         <v>100766</v>
       </c>
       <c r="I127">
-        <v>100564</v>
+        <v>100556</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4521,25 +4524,25 @@
         <v>2987</v>
       </c>
       <c r="C128">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="D128">
         <v>14723</v>
       </c>
       <c r="E128">
-        <v>14869</v>
+        <v>14873</v>
       </c>
       <c r="F128">
         <v>59454</v>
       </c>
       <c r="G128">
-        <v>59271</v>
+        <v>59274</v>
       </c>
       <c r="H128">
         <v>101657</v>
       </c>
       <c r="I128">
-        <v>100723</v>
+        <v>100721</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4550,25 +4553,25 @@
         <v>3082</v>
       </c>
       <c r="C129">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="D129">
         <v>15653</v>
       </c>
       <c r="E129">
-        <v>15152</v>
+        <v>15149</v>
       </c>
       <c r="F129">
         <v>60217</v>
       </c>
       <c r="G129">
-        <v>59274</v>
+        <v>59250</v>
       </c>
       <c r="H129">
         <v>100900</v>
       </c>
       <c r="I129">
-        <v>100420</v>
+        <v>100411</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4579,25 +4582,25 @@
         <v>3035</v>
       </c>
       <c r="C130">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="D130">
         <v>15656</v>
       </c>
       <c r="E130">
-        <v>15716</v>
+        <v>15720</v>
       </c>
       <c r="F130">
         <v>60811</v>
       </c>
       <c r="G130">
-        <v>61267</v>
+        <v>61281</v>
       </c>
       <c r="H130">
         <v>100778</v>
       </c>
       <c r="I130">
-        <v>101968</v>
+        <v>101974</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4608,25 +4611,25 @@
         <v>3006</v>
       </c>
       <c r="C131">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="D131">
         <v>16154</v>
       </c>
       <c r="E131">
-        <v>15989</v>
+        <v>15984</v>
       </c>
       <c r="F131">
         <v>63098</v>
       </c>
       <c r="G131">
-        <v>62954</v>
+        <v>62929</v>
       </c>
       <c r="H131">
         <v>104275</v>
       </c>
       <c r="I131">
-        <v>103959</v>
+        <v>103943</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4637,25 +4640,25 @@
         <v>3058</v>
       </c>
       <c r="C132">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="D132">
         <v>16139</v>
       </c>
       <c r="E132">
-        <v>16185</v>
+        <v>16197</v>
       </c>
       <c r="F132">
         <v>63353</v>
       </c>
       <c r="G132">
-        <v>63146</v>
+        <v>63157</v>
       </c>
       <c r="H132">
         <v>106537</v>
       </c>
       <c r="I132">
-        <v>105331</v>
+        <v>105327</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4666,25 +4669,25 @@
         <v>3110</v>
       </c>
       <c r="C133">
-        <v>3031</v>
+        <v>3036</v>
       </c>
       <c r="D133">
         <v>16729</v>
       </c>
       <c r="E133">
-        <v>16264</v>
+        <v>16272</v>
       </c>
       <c r="F133">
         <v>64961</v>
       </c>
       <c r="G133">
-        <v>64036</v>
+        <v>64028</v>
       </c>
       <c r="H133">
         <v>109083</v>
       </c>
       <c r="I133">
-        <v>108835</v>
+        <v>108839</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4695,25 +4698,25 @@
         <v>3060</v>
       </c>
       <c r="C134">
-        <v>3125</v>
+        <v>3131</v>
       </c>
       <c r="D134">
         <v>16530</v>
       </c>
       <c r="E134">
-        <v>16680</v>
+        <v>16691</v>
       </c>
       <c r="F134">
         <v>64035</v>
       </c>
       <c r="G134">
-        <v>64391</v>
+        <v>64394</v>
       </c>
       <c r="H134">
         <v>109195</v>
       </c>
       <c r="I134">
-        <v>110481</v>
+        <v>110485</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4724,25 +4727,25 @@
         <v>3063</v>
       </c>
       <c r="C135">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="D135">
         <v>17123</v>
       </c>
       <c r="E135">
-        <v>16893</v>
+        <v>16867</v>
       </c>
       <c r="F135">
         <v>65189</v>
       </c>
       <c r="G135">
-        <v>65125</v>
+        <v>65076</v>
       </c>
       <c r="H135">
         <v>112754</v>
       </c>
       <c r="I135">
-        <v>112452</v>
+        <v>112421</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4753,25 +4756,25 @@
         <v>3140</v>
       </c>
       <c r="C136">
-        <v>3072</v>
+        <v>3077</v>
       </c>
       <c r="D136">
         <v>17763</v>
       </c>
       <c r="E136">
-        <v>17767</v>
+        <v>17808</v>
       </c>
       <c r="F136">
         <v>66832</v>
       </c>
       <c r="G136">
-        <v>66664</v>
+        <v>66686</v>
       </c>
       <c r="H136">
         <v>115725</v>
       </c>
       <c r="I136">
-        <v>114345</v>
+        <v>114339</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4782,25 +4785,25 @@
         <v>3380</v>
       </c>
       <c r="C137">
-        <v>3320</v>
+        <v>3329</v>
       </c>
       <c r="D137">
         <v>19470</v>
       </c>
       <c r="E137">
-        <v>19026</v>
+        <v>19039</v>
       </c>
       <c r="F137">
         <v>69582</v>
       </c>
       <c r="G137">
-        <v>68606</v>
+        <v>68594</v>
       </c>
       <c r="H137">
         <v>117290</v>
       </c>
       <c r="I137">
-        <v>116852</v>
+        <v>116854</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4811,25 +4814,25 @@
         <v>3404</v>
       </c>
       <c r="C138">
-        <v>3509</v>
+        <v>3517</v>
       </c>
       <c r="D138">
         <v>19887</v>
       </c>
       <c r="E138">
-        <v>20144</v>
+        <v>20160</v>
       </c>
       <c r="F138">
         <v>68893</v>
       </c>
       <c r="G138">
-        <v>69453</v>
+        <v>69448</v>
       </c>
       <c r="H138">
         <v>116703</v>
       </c>
       <c r="I138">
-        <v>118328</v>
+        <v>118332</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4840,25 +4843,25 @@
         <v>3866</v>
       </c>
       <c r="C139">
-        <v>3850</v>
+        <v>3828</v>
       </c>
       <c r="D139">
         <v>23344</v>
       </c>
       <c r="E139">
-        <v>23007</v>
+        <v>22937</v>
       </c>
       <c r="F139">
         <v>70154</v>
       </c>
       <c r="G139">
-        <v>70117</v>
+        <v>70039</v>
       </c>
       <c r="H139">
         <v>120075</v>
       </c>
       <c r="I139">
-        <v>119652</v>
+        <v>119608</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4869,19 +4872,19 @@
         <v>4941</v>
       </c>
       <c r="C140">
-        <v>4837</v>
+        <v>4854</v>
       </c>
       <c r="D140">
         <v>27868</v>
       </c>
       <c r="E140">
-        <v>27938</v>
+        <v>28059</v>
       </c>
       <c r="F140">
         <v>70787</v>
       </c>
       <c r="G140">
-        <v>70662</v>
+        <v>70707</v>
       </c>
       <c r="H140">
         <v>122590</v>
@@ -4898,25 +4901,25 @@
         <v>5175</v>
       </c>
       <c r="C141">
-        <v>5098</v>
+        <v>5123</v>
       </c>
       <c r="D141">
         <v>29142</v>
       </c>
       <c r="E141">
-        <v>28387</v>
+        <v>28442</v>
       </c>
       <c r="F141">
         <v>71009</v>
       </c>
       <c r="G141">
-        <v>70192</v>
+        <v>70218</v>
       </c>
       <c r="H141">
         <v>118919</v>
       </c>
       <c r="I141">
-        <v>118726</v>
+        <v>118753</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4927,25 +4930,25 @@
         <v>5548</v>
       </c>
       <c r="C142">
-        <v>5754</v>
+        <v>5767</v>
       </c>
       <c r="D142">
         <v>30207</v>
       </c>
       <c r="E142">
-        <v>30531</v>
+        <v>30550</v>
       </c>
       <c r="F142">
         <v>70529</v>
       </c>
       <c r="G142">
-        <v>71116</v>
+        <v>71109</v>
       </c>
       <c r="H142">
         <v>117910</v>
       </c>
       <c r="I142">
-        <v>119689</v>
+        <v>119698</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4956,25 +4959,54 @@
         <v>6305</v>
       </c>
       <c r="C143">
-        <v>6252</v>
+        <v>6204</v>
       </c>
       <c r="D143">
         <v>34594</v>
       </c>
       <c r="E143">
-        <v>34057</v>
+        <v>33908</v>
       </c>
       <c r="F143">
         <v>72780</v>
       </c>
       <c r="G143">
-        <v>72723</v>
+        <v>72629</v>
       </c>
       <c r="H143">
         <v>122459</v>
       </c>
       <c r="I143">
-        <v>122031</v>
+        <v>121980</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144">
+        <v>6477</v>
+      </c>
+      <c r="C144">
+        <v>6365</v>
+      </c>
+      <c r="D144">
+        <v>34001</v>
+      </c>
+      <c r="E144">
+        <v>34440</v>
+      </c>
+      <c r="F144">
+        <v>73824</v>
+      </c>
+      <c r="G144">
+        <v>73781</v>
+      </c>
+      <c r="H144">
+        <v>125832</v>
+      </c>
+      <c r="I144">
+        <v>124347</v>
       </c>
     </row>
   </sheetData>
